--- a/model-data/all_capacities.xlsx
+++ b/model-data/all_capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bf5eff0e82977d5/Documents/Uni-DESKTOP-D41IPJ3/Internship Aalto/EnergyModel/model-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="483" documentId="8_{FE77C99A-068E-4581-8E1B-1A0085C5423B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A579871-5D7D-4B53-BA7B-A56D121A9278}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836E882-20B4-4B66-B341-4A30233C5E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2745" windowWidth="29790" windowHeight="15240" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
   </bookViews>
   <sheets>
     <sheet name="FIN" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="37">
   <si>
     <t>Production Type</t>
   </si>
@@ -134,6 +133,30 @@
   <si>
     <t>is_active</t>
   </si>
+  <si>
+    <t>Aggregated capacity 2020 [MW]</t>
+  </si>
+  <si>
+    <t>Generation unit capacity 2020 [MW]</t>
+  </si>
+  <si>
+    <t>number_of_units</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>RampBase</t>
+  </si>
+  <si>
+    <t>online_variable_type</t>
+  </si>
+  <si>
+    <t>unit_online_variable_type_integer</t>
+  </si>
+  <si>
+    <t>IntergerVariables</t>
+  </si>
 </sst>
 </file>
 
@@ -168,12 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -236,7 +260,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,30 +556,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E20367-8F61-4CFD-AF92-8269AB06E53E}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -563,8 +589,23 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -579,8 +620,24 @@
         <f>IF(B2&gt;0,"True","False")</f>
         <v>True</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <f>B2/F2</f>
+        <v>88.571428571428569</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,8 +652,24 @@
         <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E21" si="1">B3/F3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -611,8 +684,24 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -627,8 +716,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>108.76470588235294</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -643,8 +748,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>270.375</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -659,8 +780,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -675,8 +812,24 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -691,8 +844,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -707,8 +876,24 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -723,8 +908,24 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -739,8 +940,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>64.244897959183675</v>
+      </c>
+      <c r="F12">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -755,8 +972,21 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -771,8 +1001,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>558.79999999999995</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -787,8 +1033,21 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -803,8 +1062,21 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -819,8 +1091,21 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -835,8 +1120,21 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -851,8 +1149,21 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -867,40 +1178,70 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>17274</v>
-      </c>
+      <c r="E20" s="2">
+        <f>B20/F20</f>
+        <v>2145</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" t="str">
+        <f>$C$1&amp;"_hydro-reservoir"</f>
+        <v>FIN_hydro-reservoir</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(B21&gt;0,"True","False")</f>
+        <v>False</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" t="str">
-        <f>$C$1&amp;"_hydro-reservoir"</f>
-        <v>FIN_hydro-reservoir</v>
-      </c>
-      <c r="D24" t="str">
-        <f>IF(B24&gt;0,"True","False")</f>
-        <v>False</v>
-      </c>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f>SUM(B2:B21)</f>
+        <v>17274</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -912,10 +1253,10 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -929,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -937,7 +1278,21 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -957,7 +1312,22 @@
         <f>IF(B2&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="E2" s="2">
+        <f>B2/F2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -977,7 +1347,22 @@
         <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -997,7 +1382,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1017,7 +1417,22 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>128.4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1037,7 +1452,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1057,7 +1487,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1077,7 +1522,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1097,7 +1557,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1117,7 +1592,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1137,7 +1627,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1157,7 +1662,22 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1366459627329188</v>
+      </c>
+      <c r="F12">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1177,7 +1697,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1197,7 +1729,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1217,7 +1764,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1237,7 +1796,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1257,7 +1828,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1277,7 +1860,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1297,7 +1892,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1317,45 +1924,80 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>3068</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1">
+        <v>28185</v>
+      </c>
+      <c r="C21" t="str">
+        <f>$C$1&amp;"_hydro-reservoir"</f>
+        <v>NOR_hydro-reservoir</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(B21&gt;0,"True","False")</f>
+        <v>True</v>
+      </c>
+      <c r="E21" s="2">
+        <f>B21/F21</f>
+        <v>309.72527472527474</v>
+      </c>
+      <c r="F21">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
+        <f>SUM(B2:B21)</f>
         <v>33044</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <v>28185</v>
-      </c>
-      <c r="C24" t="str">
-        <f>$C$1&amp;"_hydro-reservoir"</f>
-        <v>NOR_hydro-reservoir</v>
-      </c>
-      <c r="D24" t="str">
-        <f>IF(B24&gt;0,"True","False")</f>
-        <v>True</v>
-      </c>
-      <c r="I24" s="1"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1370,10 +2012,10 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1388,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
@@ -1396,7 +2038,21 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1416,7 +2072,22 @@
         <f>IF(B2&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="E2" s="2">
+        <f>B2/F2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1436,6 +2107,22 @@
         <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1452,6 +2139,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1468,6 +2171,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1484,6 +2203,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1500,6 +2235,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1516,6 +2267,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1532,6 +2299,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1548,6 +2331,22 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>8408</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1564,6 +2363,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1580,6 +2395,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1596,6 +2427,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1612,6 +2456,22 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>1442.6666666666667</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1628,6 +2488,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1644,8 +2517,21 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1660,8 +2546,21 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1676,8 +2575,21 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1692,8 +2604,21 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1708,35 +2633,73 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>42503</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>7300</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24">
+      <c r="B21">
         <v>16431</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C21" t="str">
         <f>$C$1&amp;"_hydro-reservoir"</f>
         <v>SWE_hydro-reservoir</v>
       </c>
-      <c r="D24" t="str">
-        <f>IF(B24&gt;0,"True","False")</f>
+      <c r="D21" t="str">
+        <f>IF(B21&gt;0,"True","False")</f>
         <v>True</v>
       </c>
+      <c r="E21" s="2">
+        <f>B21/F21</f>
+        <v>469.45714285714286</v>
+      </c>
+      <c r="F21">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f>SUM(B2:B21)</f>
+        <v>41206</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1748,10 +2711,10 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1765,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -1773,7 +2736,21 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1793,7 +2770,22 @@
         <f>IF(B2&gt;0,"True","False")</f>
         <v>True</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="E2" s="2">
+        <f>B2/F2</f>
+        <v>468</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1813,7 +2805,22 @@
         <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1833,7 +2840,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1853,7 +2875,22 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>133.76923076923077</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1873,7 +2910,22 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>609.33333333333337</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1893,7 +2945,22 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>336.33333333333331</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1913,7 +2980,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1933,7 +3015,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1953,7 +3050,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1973,7 +3085,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1993,7 +3120,22 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2013,7 +3155,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2033,7 +3187,22 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2053,7 +3222,19 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2073,7 +3254,19 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2093,7 +3286,19 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2113,7 +3318,19 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>54.857142857142854</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2133,7 +3350,19 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2153,48 +3382,80 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>4402</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="str">
+        <f>$C$1&amp;"_hydro-reservoir"</f>
+        <v>DEN_hydro-reservoir</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(B21&gt;0,"True","False")</f>
+        <v>False</v>
+      </c>
+      <c r="E21" s="2">
+        <f>B21/F21</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
+        <f>SUM(B2:B21)</f>
         <v>15919</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" t="str">
-        <f>$C$1&amp;"_hydro-reservoir"</f>
-        <v>DEN_hydro-reservoir</v>
-      </c>
-      <c r="D24" t="str">
-        <f>IF(B24&gt;0,"True","False")</f>
-        <v>False</v>
-      </c>
-      <c r="I24" s="1"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2206,27 +3467,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34185FE9-ED8F-4A26-B18C-A5B04A819B81}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -2234,8 +3495,23 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2251,8 +3527,24 @@
         <f>IF(B2&gt;0,"True","False")</f>
         <v>True</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <f>B2/F2</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +3560,24 @@
         <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2285,8 +3593,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2302,8 +3626,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>292.89999999999998</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2319,8 +3659,24 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2336,8 +3692,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2353,8 +3725,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>656.66666666666663</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2370,8 +3758,24 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2387,8 +3791,24 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2404,8 +3824,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2421,8 +3857,24 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>342.8</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2438,8 +3890,21 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2455,8 +3920,24 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2472,8 +3953,21 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2489,8 +3983,21 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2506,8 +4013,21 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2523,8 +4043,21 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2540,8 +4073,21 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2557,36 +4103,70 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <f>Lithuania!B22+Latvia!B22+Estonia!B22</f>
-        <v>9369</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>937</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24">
-        <f>Lithuania!B13+Latvia!B13+Estonia!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C24" t="str">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="str">
         <f>$C$1&amp;"_hydro-reservoir"</f>
         <v>BAL_hydro-reservoir</v>
       </c>
-      <c r="D24" t="str">
-        <f>IF(B24&gt;0,"True","False")</f>
-        <v>False</v>
-      </c>
+      <c r="D21" t="str">
+        <f>IF(B21&gt;0,"True","False")</f>
+        <v>False</v>
+      </c>
+      <c r="E21" s="2">
+        <f>B21/F21</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f>SUM(B2:B21)</f>
+        <v>9369</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2598,10 +4178,10 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -2799,7 +4379,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -2997,7 +4577,7 @@
       <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>

--- a/model-data/all_capacities.xlsx
+++ b/model-data/all_capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836E882-20B4-4B66-B341-4A30233C5E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7C93A9-5EDC-4AE7-BD2B-18C586BC4A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
   </bookViews>
   <sheets>
     <sheet name="FIN" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Lithuania" sheetId="12" r:id="rId6"/>
     <sheet name="Latvia" sheetId="11" r:id="rId7"/>
     <sheet name="Estonia" sheetId="10" r:id="rId8"/>
+    <sheet name="hydro_pumped_storage" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="ExterneDaten_1" localSheetId="7" hidden="1">Estonia!$A$1:$B$22</definedName>
@@ -44,8 +45,424 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+    <author>Seppi Koell</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FAB34CD7-B981-4297-B950-5865FE129236}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Storage Capacity [MWh]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{AA8B4640-A15D-4B7F-9FED-3A34CB3C6B83}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A simple assumption</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{39906744-4BF3-4492-A986-E85367B2CC4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+More details about generating mode can be found in:
+1) the country's sheets of this workbook
+2) gen_technology.xlsx
+3) ramping_detail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{BE75A802-EA98-4C3E-9E23-9DB673BF909B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+for generating mode</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{BE7078FF-8AD8-4203-853C-02E1CA96BD55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+for pumping mode</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{0B001A76-B421-4DC7-BBB7-505279F1792C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+varOM 2010 [€/MWh], for pumping mode</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{88C36894-A8BF-4E6E-89C4-31642D78027A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+for pumping node, if available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{492099CD-8FB9-402B-9B95-D91B2B8DEF76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12-hour storage volume for full generator mode operation (mentioned in the vedio in source 1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{B2F8D1F7-7349-4390-AE00-8DBCF4857B09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+It does not make sense for aggregated unit to have min opt level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{B735D12B-3C4C-43F7-BE1F-CA6850C66EC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The official introduction (source 1&amp;4) claim opt range to be 0-225, while the more serious extension contract info. (source 2&amp;3) shows a min opt level at 160MW</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9684D7C1-62B6-41F5-9739-19B9B839014B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+additional 8.2GWh storage capacity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{0A3B0834-2CF8-AE4C-8A08-EF940CAFEE8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Seppi Koell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit number 5 with more flexibility see source 3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{F48592AE-D7B7-4E53-944D-AE9CE3E0EE33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+plan to commission in 2024 (source 2)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{931B08B3-AF40-406A-AA87-5AA2D92D212E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The values here are only the higher reservoir. Source 1 also provides storage capacity of lower reservior. Re-think a proper way to model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{9C007590-AF60-4F89-9888-F119FDB98844}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+a range of 0.65-0.8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{8B89C5E2-519C-B44E-B1E8-A3AF873FA20F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Seppi Koell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Big and small plants are analyzed</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="74">
   <si>
     <t>Production Type</t>
   </si>
@@ -155,20 +572,168 @@
     <t>unit_online_variable_type_integer</t>
   </si>
   <si>
-    <t>IntergerVariables</t>
+    <t>node</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>has_state</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>minimum_operating_point</t>
+  </si>
+  <si>
+    <t>Generator Capacity [MW]</t>
+  </si>
+  <si>
+    <t>Pump Capacity</t>
+  </si>
+  <si>
+    <t>Generator Efficiency</t>
+  </si>
+  <si>
+    <t>Pump Efficiency</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>source 1</t>
+  </si>
+  <si>
+    <t>source 2</t>
+  </si>
+  <si>
+    <t>emissions [CO2 tons / MWh of electricity]</t>
+  </si>
+  <si>
+    <t>node_state_cap</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>IntegerVariables</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Source 1</t>
+  </si>
+  <si>
+    <t>BAL_hydro-pumped_storage</t>
+  </si>
+  <si>
+    <t>source 3</t>
+  </si>
+  <si>
+    <t>source 4</t>
+  </si>
+  <si>
+    <t>BAL_hydro-pumped_ext</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Øljusjøen</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Tevla</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Stølsdal</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Saurdal</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Nygard</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Jukla</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Herva</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Duge</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Brattingfoss</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Aurland_III</t>
+  </si>
+  <si>
+    <t>Source 2</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped</t>
+  </si>
+  <si>
+    <t>initial_node_state</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,15 +753,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -558,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E20367-8F61-4CFD-AF92-8269AB06E53E}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +1213,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -666,7 +1245,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -730,7 +1309,7 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -762,7 +1341,7 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,7 +1373,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -826,7 +1405,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -858,7 +1437,7 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -890,7 +1469,7 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -922,7 +1501,7 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -954,7 +1533,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -983,7 +1562,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1015,7 +1594,7 @@
         <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1044,7 +1623,7 @@
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1073,7 +1652,7 @@
         <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1102,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1131,7 +1710,7 @@
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1160,7 +1739,7 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,7 +1768,7 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1221,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1253,7 +1832,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1905,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1361,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1396,7 +1975,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1431,7 +2010,7 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1466,7 +2045,7 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1501,7 +2080,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1536,7 +2115,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1571,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1606,7 +2185,7 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1641,7 +2220,7 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1676,7 +2255,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1708,7 +2287,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1743,7 +2322,7 @@
         <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1775,7 +2354,7 @@
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1807,7 +2386,7 @@
         <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1839,7 +2418,7 @@
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1871,7 +2450,7 @@
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1903,7 +2482,7 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1935,7 +2514,7 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1970,7 +2549,7 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2012,7 +2591,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2665,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2121,7 +2700,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2153,7 +2732,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2185,7 +2764,7 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2217,7 +2796,7 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2249,7 +2828,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2281,7 +2860,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2313,7 +2892,7 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2345,7 +2924,7 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2377,7 +2956,7 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2409,7 +2988,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2438,7 +3017,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2470,7 +3049,7 @@
         <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2499,7 +3078,7 @@
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2528,7 +3107,7 @@
         <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2557,7 +3136,7 @@
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2586,7 +3165,7 @@
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2615,7 +3194,7 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2644,7 +3223,7 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2676,7 +3255,7 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2711,7 +3290,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,7 +3363,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2819,7 +3398,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2854,7 +3433,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2889,7 +3468,7 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2924,7 +3503,7 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2959,7 +3538,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2994,7 +3573,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3029,7 +3608,7 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3064,7 +3643,7 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3099,7 +3678,7 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3134,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3166,7 +3745,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3201,7 +3780,7 @@
         <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3233,7 +3812,7 @@
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3265,7 +3844,7 @@
         <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3297,7 +3876,7 @@
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3329,7 +3908,7 @@
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3361,7 +3940,7 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3393,7 +3972,7 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3428,7 +4007,7 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3470,7 +4049,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,7 +4120,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3574,7 +4153,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3607,7 +4186,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3640,7 +4219,7 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3673,7 +4252,7 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3706,7 +4285,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3739,7 +4318,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3772,7 +4351,7 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3805,7 +4384,7 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3826,10 +4405,10 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>225</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -3838,7 +4417,7 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3871,7 +4450,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3901,7 +4480,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3934,7 +4513,7 @@
         <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3964,7 +4543,7 @@
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,7 +4573,7 @@
         <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4024,7 +4603,7 @@
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4054,7 +4633,7 @@
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4084,7 +4663,7 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4114,7 +4693,7 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4146,7 +4725,7 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4574,7 +5153,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4764,6 +5343,757 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973FF12-FD18-40EC-9AFC-58211611AEEE}">
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="24.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="str">
+        <f>BAL!C11</f>
+        <v>BAL_hydro-pumped</v>
+      </c>
+      <c r="C2" t="str">
+        <f>B2&amp;"_storage"</f>
+        <v>BAL_hydro-pumped_storage</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2">
+        <f>ROUNDUP(J2*12/K2/10^3,0)*10^3</f>
+        <v>15000</v>
+      </c>
+      <c r="G2">
+        <f>F2/3</f>
+        <v>5000</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <f>BAL!B11</f>
+        <v>900</v>
+      </c>
+      <c r="K2">
+        <v>0.74</v>
+      </c>
+      <c r="M2">
+        <f>880</f>
+        <v>880</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>A2</f>
+        <v>BAL</v>
+      </c>
+      <c r="B3" t="str">
+        <f>B2</f>
+        <v>BAL_hydro-pumped</v>
+      </c>
+      <c r="C3" t="str">
+        <f>B3&amp;"_storage"</f>
+        <v>BAL_hydro-pumped_storage</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <f>BAL!F11</f>
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>J2/H3</f>
+        <v>225</v>
+      </c>
+      <c r="L3" s="3">
+        <f>160/J3</f>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="M3">
+        <f>M2/H3</f>
+        <v>220</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2">
+        <f>F2+8.2*10^3/K4</f>
+        <v>25512.820512820512</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F4/3</f>
+        <v>8504.2735042735039</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>225</v>
+      </c>
+      <c r="K4">
+        <v>0.78</v>
+      </c>
+      <c r="L4" s="3">
+        <f>44/J4</f>
+        <v>0.19555555555555557</v>
+      </c>
+      <c r="M4">
+        <v>225</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <f>110/M4</f>
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="I5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F8:F17)</f>
+        <v>5023000</v>
+      </c>
+      <c r="G6" s="2">
+        <f>F6/3</f>
+        <v>1674333.3333333333</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="6">
+        <f>SUM(J8:J17)</f>
+        <v>1369.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M6">
+        <f>SUM(M8:M17)</f>
+        <v>970</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="S6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>440000</v>
+      </c>
+      <c r="G8" s="2">
+        <f>F8/3</f>
+        <v>146666.66666666666</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>270</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M8">
+        <v>258</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>31000</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9:G17" si="0">F9/3</f>
+        <v>10333.333333333334</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>755000</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>251666.66666666666</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>200</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M10">
+        <v>170</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>69000</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>23000</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>35</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M11">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>116000</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>38666.666666666664</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>40</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M12">
+        <v>41</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>114000</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M13">
+        <v>52</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>3331000</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>1110333.3333333333</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>640</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M14">
+        <v>320</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>17</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>82000</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>27333.333333333332</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>50</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M16">
+        <v>42</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>84000</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>49</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M17">
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S26" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="T6:T17"/>
+    <mergeCell ref="S6:S17"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{8F1C29EF-9F54-46BF-97BC-D5A1739828A7}"/>
+    <hyperlink ref="T2:T4" r:id="rId2" display="source 2" xr:uid="{149F99E7-8475-4B80-85A4-1D29B490FD75}"/>
+    <hyperlink ref="U2:U4" r:id="rId3" display="source 3" xr:uid="{B9CBB1A7-2B02-48C7-BE48-7CB9152EB97D}"/>
+    <hyperlink ref="V2:V4" r:id="rId4" display="source 4" xr:uid="{E56390C1-404F-4955-AAD6-80BA68187F71}"/>
+    <hyperlink ref="S6" r:id="rId5" display="https://mdpi-res.com/d_attachment/energies/energies-13-04918/article_deploy/energies-13-04918-v2.pdf?version=1601001709" xr:uid="{482CEDF0-F18B-4B5F-A2E0-69030562BD3F}"/>
+    <hyperlink ref="T6" r:id="rId6" display="https://www.mdpi.com/2071-1050/14/11/6939" xr:uid="{B0D9F830-F553-4294-A522-01576ECDDF43}"/>
+    <hyperlink ref="T6:T17" r:id="rId7" display="Source 2" xr:uid="{FCAA4EE5-2B95-413A-BFE3-F38B0A646A60}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/model-data/all_capacities.xlsx
+++ b/model-data/all_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7C93A9-5EDC-4AE7-BD2B-18C586BC4A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA60CF2-3A7E-4B75-A1DD-3926DDCE7318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
   </bookViews>
@@ -39,6 +39,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,6 +48,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{6F65A76D-BD65-4F8E-B10F-85786819626B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+With ramping details, we model specific individual plants for Norway. See table "hydro_pumped_storage"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Huang  Jiangyi</author>
@@ -175,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{0B001A76-B421-4DC7-BBB7-505279F1792C}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{0B001A76-B421-4DC7-BBB7-505279F1792C}">
       <text>
         <r>
           <rPr>
@@ -199,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{88C36894-A8BF-4E6E-89C4-31642D78027A}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{88C36894-A8BF-4E6E-89C4-31642D78027A}">
       <text>
         <r>
           <rPr>
@@ -376,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{931B08B3-AF40-406A-AA87-5AA2D92D212E}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{931B08B3-AF40-406A-AA87-5AA2D92D212E}">
       <text>
         <r>
           <rPr>
@@ -396,11 +432,12 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The values here are only the higher reservoir. Source 1 also provides storage capacity of lower reservior. Re-think a proper way to model.</t>
+The values here are only Only use the lower reservoir. Most of
+the PSPs in NO were designed for pumping of inflow during flood season (see source 1).</t>
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{9C007590-AF60-4F89-9888-F119FDB98844}">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{9C007590-AF60-4F89-9888-F119FDB98844}">
       <text>
         <r>
           <rPr>
@@ -424,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{8B89C5E2-519C-B44E-B1E8-A3AF873FA20F}">
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{8B89C5E2-519C-B44E-B1E8-A3AF873FA20F}">
       <text>
         <r>
           <rPr>
@@ -462,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="74">
   <si>
     <t>Production Type</t>
   </si>
@@ -569,121 +606,121 @@
     <t>online_variable_type</t>
   </si>
   <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>has_state</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>minimum_operating_point</t>
+  </si>
+  <si>
+    <t>Generator Capacity [MW]</t>
+  </si>
+  <si>
+    <t>Pump Capacity</t>
+  </si>
+  <si>
+    <t>Generator Efficiency</t>
+  </si>
+  <si>
+    <t>Pump Efficiency</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>source 1</t>
+  </si>
+  <si>
+    <t>source 2</t>
+  </si>
+  <si>
+    <t>emissions [CO2 tons / MWh of electricity]</t>
+  </si>
+  <si>
+    <t>node_state_cap</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Source 1</t>
+  </si>
+  <si>
+    <t>BAL_hydro-pumped_storage</t>
+  </si>
+  <si>
+    <t>source 3</t>
+  </si>
+  <si>
+    <t>source 4</t>
+  </si>
+  <si>
+    <t>BAL_hydro-pumped_ext</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Øljusjøen</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Tevla</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Stølsdal</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Saurdal</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Nygard</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Jukla</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Herva</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Duge</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Brattingfoss</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Aurland_III</t>
+  </si>
+  <si>
+    <t>Source 2</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped</t>
+  </si>
+  <si>
+    <t>initial_node_state</t>
+  </si>
+  <si>
     <t>unit_online_variable_type_integer</t>
   </si>
   <si>
-    <t>node</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>has_state</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>minimum_operating_point</t>
-  </si>
-  <si>
-    <t>Generator Capacity [MW]</t>
-  </si>
-  <si>
-    <t>Pump Capacity</t>
-  </si>
-  <si>
-    <t>Generator Efficiency</t>
-  </si>
-  <si>
-    <t>Pump Efficiency</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>source 1</t>
-  </si>
-  <si>
-    <t>source 2</t>
-  </si>
-  <si>
-    <t>emissions [CO2 tons / MWh of electricity]</t>
-  </si>
-  <si>
-    <t>node_state_cap</t>
-  </si>
-  <si>
-    <t>vom_cost</t>
-  </si>
-  <si>
     <t>IntegerVariables</t>
-  </si>
-  <si>
-    <t>Future</t>
-  </si>
-  <si>
-    <t>Source 1</t>
-  </si>
-  <si>
-    <t>BAL_hydro-pumped_storage</t>
-  </si>
-  <si>
-    <t>source 3</t>
-  </si>
-  <si>
-    <t>source 4</t>
-  </si>
-  <si>
-    <t>BAL_hydro-pumped_ext</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_storage</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Øljusjøen</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Tevla</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Stølsdal</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Saurdal</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Nygard</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Jukla</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Herva</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Duge</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Brattingfoss</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Aurland_III</t>
-  </si>
-  <si>
-    <t>Source 2</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped</t>
-  </si>
-  <si>
-    <t>initial_node_state</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1175,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,11 +1246,13 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
+      <c r="H2" s="7" t="str">
+        <f>IF(D2,"unit_online_variable_type_integer","")</f>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(H2="",H2,"IntegerVariables")</f>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1241,11 +1280,13 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
+      <c r="H3" s="7" t="str">
+        <f>IF(D3,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1273,11 +1314,13 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:H21" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1305,11 +1348,13 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1337,11 +1382,13 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1369,11 +1416,13 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1401,11 +1450,13 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1433,11 +1484,13 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1465,11 +1518,13 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1497,11 +1552,13 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1529,11 +1586,13 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1561,8 +1620,13 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
-        <v>52</v>
+      <c r="H13" s="7" t="str">
+        <f>IF(D13,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1590,11 +1654,13 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1622,8 +1688,13 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" t="s">
-        <v>52</v>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1651,8 +1722,13 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="I16" t="s">
-        <v>52</v>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1680,8 +1756,13 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
-        <v>52</v>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1709,8 +1790,13 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1738,8 +1824,13 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="I19" t="s">
-        <v>52</v>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1767,8 +1858,13 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="I20" t="s">
-        <v>52</v>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1796,11 +1892,13 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1828,20 +1926,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411AD0E3-0831-47AD-A8A3-9FE0AF10CD42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411AD0E3-0831-47AD-A8A3-9FE0AF10CD42}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1901,11 +2000,13 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
+      <c r="H2" s="7" t="str">
+        <f>IF(D2,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(H2="",H2,"IntegerVariables")</f>
+        <v/>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1936,11 +2037,13 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
+      <c r="H3" s="7" t="str">
+        <f>IF(D3,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <v/>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1971,11 +2074,13 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:H21" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2006,11 +2111,13 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2041,11 +2148,13 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
+      <c r="H6" s="7" t="str">
+        <f t="shared" ref="H6:H21" si="4">IF(D6,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I21" si="5">IF(H6="",H6,"IntegerVariables")</f>
+        <v/>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2076,11 +2185,13 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2111,11 +2222,13 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2146,11 +2259,13 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2181,11 +2296,13 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2195,8 +2312,9 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
+      <c r="B11" s="2">
+        <f>hydro_pumped_storage!J5</f>
+        <v>1369.5</v>
       </c>
       <c r="C11" t="str">
         <f>$C$1&amp;"_hydro-pumped"</f>
@@ -2204,23 +2322,16 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
+        <v>True</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="5"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2251,11 +2362,13 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="5"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2286,8 +2399,13 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
-        <v>52</v>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2318,11 +2436,13 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2353,8 +2473,13 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" t="s">
-        <v>52</v>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2385,8 +2510,13 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="I16" t="s">
-        <v>52</v>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2417,8 +2547,13 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
-        <v>52</v>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2449,8 +2584,13 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2481,8 +2621,13 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="I19" t="s">
-        <v>52</v>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2513,8 +2658,13 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="I20" t="s">
-        <v>52</v>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="5"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2545,11 +2695,13 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="5"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2568,7 +2720,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B21)</f>
-        <v>33044</v>
+        <v>34413.5</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2583,6 +2735,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2591,7 +2744,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="H2" sqref="H2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,11 +2814,13 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
+      <c r="H2" s="7" t="str">
+        <f>IF(D2,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(H2="",H2,"IntegerVariables")</f>
+        <v/>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2696,11 +2851,13 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
+      <c r="H3" s="7" t="str">
+        <f>IF(D3,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2728,11 +2885,13 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:H21" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,11 +2919,13 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2792,11 +2953,13 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2824,11 +2987,13 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2856,11 +3021,13 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2888,11 +3055,13 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2920,11 +3089,13 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,12 +3123,7 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2984,11 +3150,13 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3016,8 +3184,13 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
-        <v>52</v>
+      <c r="H13" s="7" t="str">
+        <f>IF(D13,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3045,11 +3218,13 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3077,8 +3252,13 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" t="s">
-        <v>52</v>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3106,8 +3286,13 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="I16" t="s">
-        <v>52</v>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3135,8 +3320,13 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
-        <v>52</v>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3164,8 +3354,13 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3193,8 +3388,13 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="I19" t="s">
-        <v>52</v>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3222,8 +3422,13 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="I20" t="s">
-        <v>52</v>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3251,11 +3456,13 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3290,7 +3497,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="H2" sqref="H2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,11 +3566,13 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
+      <c r="H2" s="7" t="str">
+        <f>IF(D2,"unit_online_variable_type_integer","")</f>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(H2="",H2,"IntegerVariables")</f>
+        <v>IntegerVariables</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3394,11 +3603,13 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
+      <c r="H3" s="7" t="str">
+        <f>IF(D3,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <v/>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3429,11 +3640,13 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:H21" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3464,11 +3677,13 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3499,11 +3714,13 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3534,11 +3751,13 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3569,11 +3788,13 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3604,11 +3825,13 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3639,11 +3862,13 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3674,12 +3899,7 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3709,11 +3929,13 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3744,8 +3966,13 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
-        <v>52</v>
+      <c r="H13" s="7" t="str">
+        <f>IF(D13,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3776,11 +4003,13 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3811,8 +4040,13 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" t="s">
-        <v>52</v>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3843,8 +4077,13 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="I16" t="s">
-        <v>52</v>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3875,8 +4114,13 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
-        <v>52</v>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3907,8 +4151,13 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3939,8 +4188,13 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="I19" t="s">
-        <v>52</v>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3971,8 +4225,13 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="I20" t="s">
-        <v>52</v>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -4003,11 +4262,13 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -4049,7 +4310,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4116,11 +4377,13 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
+      <c r="H2" s="7" t="str">
+        <f>IF(D2,"unit_online_variable_type_integer","")</f>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(H2="",H2,"IntegerVariables")</f>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4149,11 +4412,13 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
+      <c r="H3" s="7" t="str">
+        <f>IF(D3,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4182,11 +4447,13 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:H8" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4215,11 +4482,13 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4248,11 +4517,13 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4281,11 +4552,13 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4314,11 +4587,13 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4347,11 +4622,13 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
+      <c r="H9" s="7" t="str">
+        <f t="shared" ref="H9:H21" si="4">IF(D9,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4380,11 +4657,13 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4413,11 +4692,13 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4446,11 +4727,13 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4479,8 +4762,13 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
-        <v>52</v>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4509,11 +4797,13 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4542,8 +4832,13 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" t="s">
-        <v>52</v>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4572,8 +4867,13 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="I16" t="s">
-        <v>52</v>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4602,8 +4902,13 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
-        <v>52</v>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4632,8 +4937,13 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4662,8 +4972,13 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="I19" t="s">
-        <v>52</v>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4692,8 +5007,13 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="I20" t="s">
-        <v>52</v>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>unit_online_variable_type_integer</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4721,11 +5041,13 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5348,16 +5670,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973FF12-FD18-40EC-9AFC-58211611AEEE}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -5369,31 +5691,34 @@
     <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" customWidth="1"/>
     <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
@@ -5402,34 +5727,46 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5442,24 +5779,24 @@
         <v>BAL_hydro-pumped_storage</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2">
         <f>ROUNDUP(J2*12/K2/10^3,0)*10^3</f>
         <v>15000</v>
       </c>
       <c r="G2">
-        <f>F2/3</f>
-        <v>5000</v>
+        <f>F2/5</f>
+        <v>3000</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <f>BAL!B11</f>
@@ -5475,20 +5812,20 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="W2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>A2</f>
         <v>BAL</v>
@@ -5523,37 +5860,37 @@
       <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2">
         <f>F2+8.2*10^3/K4</f>
         <v>25512.820512820512</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/3</f>
-        <v>8504.2735042735039</v>
+        <f>F4/5</f>
+        <v>5102.5641025641025</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>225</v>
@@ -5575,522 +5912,756 @@
         <f>110/M4</f>
         <v>0.48888888888888887</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="I5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <f>SUM(F6:F15)</f>
+        <v>851500</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6">
+        <f>SUM(J6:J15)</f>
+        <v>1369.5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M5">
+        <f>SUM(M6:M15)</f>
+        <v>970</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="W5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.CONCAT("NOR_hydro-pumped_storage_",_xlfn.TEXTAFTER(B6,"_",2))</f>
+        <v>NOR_hydro-pumped_storage_Aurland_III</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <f>SUM(F8:F17)</f>
-        <v>5023000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/3</f>
-        <v>1674333.3333333333</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="6">
-        <f>SUM(J8:J17)</f>
-        <v>1369.5</v>
+        <v>270</v>
       </c>
       <c r="K6" s="4">
         <v>0.7</v>
       </c>
       <c r="M6">
-        <f>SUM(M8:M17)</f>
-        <v>970</v>
+        <v>258</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="S6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C15" si="0">_xlfn.CONCAT("NOR_hydro-pumped_storage_",_xlfn.TEXTAFTER(B7,"_",2))</f>
+        <v>NOR_hydro-pumped_storage_Brattingfoss</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="6">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="4"/>
-      <c r="Q7" s="3"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>NOR_hydro-pumped_storage_Duge</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
       <c r="F8">
-        <v>440000</v>
+        <v>500000</v>
       </c>
       <c r="G8" s="2">
-        <f>F8/3</f>
-        <v>146666.66666666666</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
       <c r="J8" s="6">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K8" s="4">
         <v>0.7</v>
       </c>
       <c r="M8">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>NOR_hydro-pumped_storage_Herva</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
       <c r="F9">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:G17" si="0">F9/3</f>
-        <v>10333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
       <c r="J9" s="6">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K9" s="4">
         <v>0.7</v>
       </c>
       <c r="M9">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>NOR_hydro-pumped_storage_Jukla</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
       <c r="F10">
-        <v>755000</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>251666.66666666666</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
       </c>
       <c r="J10" s="6">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K10" s="4">
         <v>0.7</v>
       </c>
       <c r="M10">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>NOR_hydro-pumped_storage_Nygard</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
       <c r="F11">
-        <v>69000</v>
+        <v>47000</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
       <c r="J11" s="6">
-        <v>35</v>
+        <v>57.5</v>
       </c>
       <c r="K11" s="4">
         <v>0.7</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>NOR_hydro-pumped_storage_Saurdal</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
       <c r="F12">
-        <v>116000</v>
+        <v>247000</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>38666.666666666664</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
       </c>
       <c r="J12" s="6">
-        <v>40</v>
+        <v>640</v>
       </c>
       <c r="K12" s="4">
         <v>0.7</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>NOR_hydro-pumped_storage_Stølsdal</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
       <c r="F13">
-        <v>114000</v>
+        <v>500</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" s="6">
-        <v>57.5</v>
+        <v>17</v>
       </c>
       <c r="K13" s="4">
         <v>0.7</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
         <v>60</v>
       </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>NOR_hydro-pumped_storage_Tevla</v>
+      </c>
       <c r="D14" t="s">
         <v>33</v>
       </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
       <c r="F14">
-        <v>3331000</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>1110333.3333333333</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="6">
-        <v>640</v>
+        <v>50</v>
       </c>
       <c r="K14" s="4">
         <v>0.7</v>
       </c>
       <c r="M14">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>NOR_hydro-pumped_storage_Øljusjøen</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
       <c r="F15">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>333.33333333333331</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
       <c r="J15" s="6">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="K15" s="4">
         <v>0.7</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16">
-        <v>82000</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>27333.333333333332</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="J16" s="6">
-        <v>50</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="M16">
-        <v>42</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17">
-        <v>84000</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>28000</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>49</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="M17">
+      <c r="P15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" t="s">
         <v>39</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S26" s="5"/>
+      <c r="U15" s="3"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P16" s="7" t="str">
+        <f t="shared" ref="P16:P25" si="1">IF(M16,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ref="Q7:Q25" si="2">IF(P16="",P16,"IntegerVariables")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P17" s="7" t="str">
+        <f>IF(M17,"unit_online_variable_type_integer","")</f>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="T6:T17"/>
-    <mergeCell ref="S6:S17"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="X5:X15"/>
+    <mergeCell ref="W5:W15"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{8F1C29EF-9F54-46BF-97BC-D5A1739828A7}"/>
-    <hyperlink ref="T2:T4" r:id="rId2" display="source 2" xr:uid="{149F99E7-8475-4B80-85A4-1D29B490FD75}"/>
-    <hyperlink ref="U2:U4" r:id="rId3" display="source 3" xr:uid="{B9CBB1A7-2B02-48C7-BE48-7CB9152EB97D}"/>
-    <hyperlink ref="V2:V4" r:id="rId4" display="source 4" xr:uid="{E56390C1-404F-4955-AAD6-80BA68187F71}"/>
-    <hyperlink ref="S6" r:id="rId5" display="https://mdpi-res.com/d_attachment/energies/energies-13-04918/article_deploy/energies-13-04918-v2.pdf?version=1601001709" xr:uid="{482CEDF0-F18B-4B5F-A2E0-69030562BD3F}"/>
-    <hyperlink ref="T6" r:id="rId6" display="https://www.mdpi.com/2071-1050/14/11/6939" xr:uid="{B0D9F830-F553-4294-A522-01576ECDDF43}"/>
-    <hyperlink ref="T6:T17" r:id="rId7" display="Source 2" xr:uid="{FCAA4EE5-2B95-413A-BFE3-F38B0A646A60}"/>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{8F1C29EF-9F54-46BF-97BC-D5A1739828A7}"/>
+    <hyperlink ref="X2:X4" r:id="rId2" display="source 2" xr:uid="{149F99E7-8475-4B80-85A4-1D29B490FD75}"/>
+    <hyperlink ref="Y2:Y4" r:id="rId3" display="source 3" xr:uid="{B9CBB1A7-2B02-48C7-BE48-7CB9152EB97D}"/>
+    <hyperlink ref="Z2:Z4" r:id="rId4" display="source 4" xr:uid="{E56390C1-404F-4955-AAD6-80BA68187F71}"/>
+    <hyperlink ref="W5" r:id="rId5" display="https://mdpi-res.com/d_attachment/energies/energies-13-04918/article_deploy/energies-13-04918-v2.pdf?version=1601001709" xr:uid="{482CEDF0-F18B-4B5F-A2E0-69030562BD3F}"/>
+    <hyperlink ref="X5" r:id="rId6" display="https://www.mdpi.com/2071-1050/14/11/6939" xr:uid="{B0D9F830-F553-4294-A522-01576ECDDF43}"/>
+    <hyperlink ref="X5:X15" r:id="rId7" display="Source 2" xr:uid="{FCAA4EE5-2B95-413A-BFE3-F38B0A646A60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId8"/>

--- a/model-data/all_capacities.xlsx
+++ b/model-data/all_capacities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA60CF2-3A7E-4B75-A1DD-3926DDCE7318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59531B67-950B-41AD-84A3-EA52A5F3D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
   </bookViews>
   <sheets>
     <sheet name="FIN" sheetId="6" r:id="rId1"/>
@@ -53,6 +53,64 @@
     <author>Huang  Jiangyi</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EFC29815-4B08-47FD-AC76-F1E4ACAA5B5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ENTSO-E data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{464524C6-98C5-4F0A-8427-16CCD95FCF40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ENTSO-E data except for hydro-ror</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E11" authorId="0" shapeId="0" xr:uid="{6F65A76D-BD65-4F8E-B10F-85786819626B}">
       <text>
         <r>
@@ -81,7 +139,235 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{FBF961F9-1295-4E9B-AC05-9C52F82843A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ENTSO-E data except for Solar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{0112396E-ADE9-4402-909D-CA03CFA7459E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IEA PVPS report</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{CA6C0BE3-65F0-4DFE-84A4-D885B6E01E0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ENTSO-E data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F3043CA6-DC54-47DF-A6DF-340F2BE71224}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ENTSO-E data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F4E48853-6BE1-4A28-8A18-32273C9F2C48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ENTSO-E data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{61C6B917-0F06-4CB0-8435-42039BACA69D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ENTSO-E data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{80100F21-93ED-44B1-AB04-7DB1F7FF50CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ENTSO-E data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Huang  Jiangyi</author>
@@ -499,12 +785,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="74">
   <si>
     <t>Production Type</t>
-  </si>
-  <si>
-    <t>2020 [MW]</t>
   </si>
   <si>
     <t>Biomass</t>
@@ -586,9 +869,6 @@
   </si>
   <si>
     <t>is_active</t>
-  </si>
-  <si>
-    <t>Aggregated capacity 2020 [MW]</t>
   </si>
   <si>
     <t>Generation unit capacity 2020 [MW]</t>
@@ -722,6 +1002,12 @@
   <si>
     <t>IntegerVariables</t>
   </si>
+  <si>
+    <t>Aggregated capacity 2018 [MW]</t>
+  </si>
+  <si>
+    <t>units_on_non_anticipativity_time</t>
+  </si>
 </sst>
 </file>
 
@@ -815,7 +1101,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -847,8 +1136,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{27A7841D-BFC6-4DAA-93C5-5E499302E976}" name="Lithuania" displayName="Lithuania" ref="A1:B22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{216BAC46-EA21-4B26-B77A-365E6089AEF7}" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{67FCF6A7-4FA0-4798-8738-666C0485936C}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{216BAC46-EA21-4B26-B77A-365E6089AEF7}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{67FCF6A7-4FA0-4798-8738-666C0485936C}" name="Column2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -857,19 +1146,18 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A774F209-284E-467F-995C-D5AF006565F4}" name="Latvia" displayName="Latvia" ref="A1:B22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EB7B36CC-80E8-4DC8-8EE3-4A193E5B6FC1}" name="Column1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A7ED2011-89A3-40B8-A6B9-074B2E11D50C}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{EB7B36CC-80E8-4DC8-8EE3-4A193E5B6FC1}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A7ED2011-89A3-40B8-A6B9-074B2E11D50C}" name="Column2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2479D45E-3E57-4D4F-9B14-9DE58F73E6C3}" name="Estonia" displayName="Estonia" ref="A1:B22" totalsRowShown="0">
-  <autoFilter ref="A1:B22" xr:uid="{2479D45E-3E57-4D4F-9B14-9DE58F73E6C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2479D45E-3E57-4D4F-9B14-9DE58F73E6C3}" name="Estonia" displayName="Estonia" ref="A1:B22" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{8C8DBC5A-09EF-421D-BF32-CD05BEBEA452}" name="Production Type" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{77FC7614-6DE9-4319-A68C-535FC721080E}" name="2020 [MW]"/>
+    <tableColumn id="2" xr3:uid="{77FC7614-6DE9-4319-A68C-535FC721080E}" name="Aggregated capacity 2018 [MW]"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1171,11 +1459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E20367-8F61-4CFD-AF92-8269AB06E53E}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E20367-8F61-4CFD-AF92-8269AB06E53E}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,46 +1475,53 @@
     <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1860</v>
+        <v>1813</v>
       </c>
       <c r="C2" t="str">
         <f>$C$1&amp;"_biomass"</f>
@@ -1238,13 +1533,13 @@
       </c>
       <c r="E2" s="2">
         <f>B2/F2</f>
-        <v>88.571428571428569</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="F2">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(D2,"unit_online_variable_type_integer","")</f>
@@ -1254,10 +1549,18 @@
         <f>IF(H2="",H2,"IntegerVariables")</f>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <v>30D</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(J2="",J2,"RollingHorizon")</f>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1278,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>IF(D3,"unit_online_variable_type_integer","")</f>
@@ -1288,10 +1591,18 @@
         <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1312,23 +1623,31 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f t="shared" ref="H4:H21" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <f t="shared" ref="H4:H21" si="5">IF(D4,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1849</v>
+        <v>1865</v>
       </c>
       <c r="C5" t="str">
         <f>$C$1&amp;"_gas"</f>
@@ -1340,29 +1659,37 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>108.76470588235294</v>
+        <v>109.70588235294117</v>
       </c>
       <c r="F5">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2163</v>
+        <v>2278</v>
       </c>
       <c r="C6" t="str">
         <f>$C$1&amp;"_hard-coal"</f>
@@ -1374,29 +1701,37 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>270.375</v>
+        <v>284.75</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1300</v>
+        <v>1386</v>
       </c>
       <c r="C7" t="str">
         <f>$C$1&amp;"_oil"</f>
@@ -1408,26 +1743,34 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>76.470588235294116</v>
+        <v>81.529411764705884</v>
       </c>
       <c r="F7">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1448,20 +1791,28 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1135</v>
@@ -1482,20 +1833,28 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1516,20 +1875,28 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1550,23 +1917,31 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C12" t="str">
         <f>$C$1&amp;"_hydro-ror"</f>
@@ -1578,26 +1953,34 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>64.244897959183675</v>
+        <v>64.265306122448976</v>
       </c>
       <c r="F12">
         <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1618,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7" t="str">
         <f>IF(D13,"unit_online_variable_type_integer","")</f>
@@ -1628,13 +2011,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>2794</v>
+        <v>2782</v>
       </c>
       <c r="C14" t="str">
         <f>$C$1&amp;"_nuclear"</f>
@@ -1646,29 +2037,37 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>558.79999999999995</v>
+        <v>556.4</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="C15" t="str">
         <f>$C$1&amp;"_other"</f>
@@ -1680,29 +2079,37 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C16" t="str">
         <f>$C$1&amp;"_other-ren"</f>
@@ -1714,29 +2121,37 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17" t="str">
         <f>$C$1&amp;"_solar"</f>
@@ -1744,33 +2159,41 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>False</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>unit_online_variable_type_integer</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v>IntegerVariables</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C18" t="str">
         <f>$C$1&amp;"_waste"</f>
@@ -1782,26 +2205,34 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>54.333333333333336</v>
+        <v>52.333333333333336</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -1822,23 +2253,31 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>2145</v>
+        <v>1908</v>
       </c>
       <c r="C20" t="str">
         <f>$C$1&amp;"_wind-on"</f>
@@ -1850,26 +2289,34 @@
       </c>
       <c r="E20" s="2">
         <f>B20/F20</f>
-        <v>2145</v>
+        <v>1908</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1890,31 +2337,39 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B21)</f>
-        <v>17274</v>
+        <v>17092</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1922,6 +2377,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1930,7 +2386,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,6 +2397,8 @@
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1948,36 +2406,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1998,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(D2,"unit_online_variable_type_integer","")</f>
@@ -2008,13 +2470,19 @@
         <f>IF(H2="",H2,"IntegerVariables")</f>
         <v/>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" t="str">
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(J2="",J2,"RollingHorizon")</f>
+        <v/>
+      </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -2035,23 +2503,29 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>IF(D3,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
-        <v/>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+        <f t="shared" ref="I3:I5" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <v/>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -2072,26 +2546,32 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f t="shared" ref="H4:H21" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <f t="shared" ref="H4:H5" si="5">IF(D4,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C5" t="str">
         <f>$C$1&amp;"_gas"</f>
@@ -2103,29 +2583,35 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>128.4</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2146,23 +2632,29 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f t="shared" ref="H6:H21" si="4">IF(D6,"unit_online_variable_type_integer","")</f>
+        <f t="shared" ref="H6:H21" si="6">IF(D6,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I21" si="5">IF(H6="",H6,"IntegerVariables")</f>
-        <v/>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+        <f t="shared" ref="I6:I21" si="7">IF(H6="",H6,"IntegerVariables")</f>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2183,23 +2675,29 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2220,23 +2718,29 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2257,23 +2761,29 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2294,23 +2804,29 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <f>hydro_pumped_storage!J5</f>
@@ -2326,23 +2842,29 @@
       </c>
       <c r="E11" s="2"/>
       <c r="H11" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1149</v>
+        <v>5586</v>
       </c>
       <c r="C12" t="str">
         <f>$C$1&amp;"_hydro-ror"</f>
@@ -2354,29 +2876,35 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>7.1366459627329188</v>
+        <v>34.695652173913047</v>
       </c>
       <c r="F12">
         <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2397,23 +2925,29 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2434,23 +2968,29 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2471,23 +3011,29 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2508,23 +3054,29 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -2545,23 +3097,29 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -2582,23 +3140,29 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -2619,26 +3183,32 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>3068</v>
+        <v>1232</v>
       </c>
       <c r="C20" t="str">
         <f>$C$1&amp;"_wind-on"</f>
@@ -2650,32 +3220,38 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>3068</v>
+        <v>1232</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>28185</v>
+        <v>26313</v>
       </c>
       <c r="C21" t="str">
         <f>$C$1&amp;"_hydro-reservoir"</f>
@@ -2687,24 +3263,30 @@
       </c>
       <c r="E21" s="2">
         <f>B21/F21</f>
-        <v>309.72527472527474</v>
+        <v>289.15384615384613</v>
       </c>
       <c r="F21">
         <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2716,11 +3298,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B21)</f>
-        <v>34413.5</v>
+        <v>35135.5</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2729,8 +3311,6 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
   </sheetData>
@@ -2740,21 +3320,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3849322-F8A7-4330-820A-E439827D862B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3849322-F8A7-4330-820A-E439827D862B}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I21"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2762,36 +3343,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2812,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(D2,"unit_online_variable_type_integer","")</f>
@@ -2822,13 +3407,19 @@
         <f>IF(H2="",H2,"IntegerVariables")</f>
         <v/>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" t="str">
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(J2="",J2,"RollingHorizon")</f>
+        <v/>
+      </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -2849,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>IF(D3,"unit_online_variable_type_integer","")</f>
@@ -2859,10 +3450,18 @@
         <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -2883,20 +3482,28 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f t="shared" ref="H4:H21" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <f t="shared" ref="H4:H21" si="5">IF(D4,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -2917,20 +3524,28 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2951,20 +3566,28 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2985,20 +3608,28 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -3019,20 +3650,28 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -3053,20 +3692,28 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>8408</v>
@@ -3087,20 +3734,28 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -3121,13 +3776,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7"/>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -3148,20 +3811,28 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -3182,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7" t="str">
         <f>IF(D13,"unit_online_variable_type_integer","")</f>
@@ -3192,13 +3863,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>8656</v>
+        <v>8603</v>
       </c>
       <c r="C14" t="str">
         <f>$C$1&amp;"_nuclear"</f>
@@ -3210,26 +3889,34 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>1442.6666666666667</v>
+        <v>1433.8333333333333</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -3250,20 +3937,28 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -3284,23 +3979,31 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="C17" t="str">
         <f>$C$1&amp;"_solar"</f>
@@ -3312,26 +4015,34 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -3352,20 +4063,28 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -3386,23 +4105,31 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>7300</v>
+        <v>6247</v>
       </c>
       <c r="C20" t="str">
         <f>$C$1&amp;"_wind-on"</f>
@@ -3414,29 +4141,37 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>7300</v>
+        <v>6247</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>16431</v>
+        <v>15949</v>
       </c>
       <c r="C21" t="str">
         <f>$C$1&amp;"_hydro-reservoir"</f>
@@ -3448,65 +4183,76 @@
       </c>
       <c r="E21" s="2">
         <f>B21/F21</f>
-        <v>469.45714285714286</v>
+        <v>455.68571428571431</v>
       </c>
       <c r="F21">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B21)</f>
-        <v>41206</v>
+        <v>39462</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E822D84-1F53-430A-8772-9025C443B1F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E822D84-1F53-430A-8772-9025C443B1F5}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I21"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3514,39 +4260,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1872</v>
+        <v>1696</v>
       </c>
       <c r="C2" t="str">
         <f>$C$1&amp;"_biomass"</f>
@@ -3556,15 +4306,15 @@
         <f>IF(B2&gt;0,"True","False")</f>
         <v>True</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <f>B2/F2</f>
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(D2,"unit_online_variable_type_integer","")</f>
@@ -3574,13 +4324,19 @@
         <f>IF(H2="",H2,"IntegerVariables")</f>
         <v>IntegerVariables</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" t="str">
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <v>30D</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(J2="",J2,"RollingHorizon")</f>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -3593,7 +4349,7 @@
         <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E20" si="1">B3/F3</f>
         <v>0</v>
       </c>
@@ -3601,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>IF(D3,"unit_online_variable_type_integer","")</f>
@@ -3611,13 +4367,19 @@
         <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <v/>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -3630,7 +4392,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3638,26 +4400,32 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f t="shared" ref="H4:H21" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <f t="shared" ref="H4:H21" si="5">IF(D4,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1739</v>
+        <v>1826</v>
       </c>
       <c r="C5" t="str">
         <f>$C$1&amp;"_gas"</f>
@@ -3667,31 +4435,37 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>133.76923076923077</v>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
+        <v>140.46153846153845</v>
       </c>
       <c r="F5">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>3656</v>
@@ -3704,7 +4478,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>609.33333333333337</v>
       </c>
@@ -3712,26 +4486,32 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C7" t="str">
         <f>$C$1&amp;"_oil"</f>
@@ -3741,31 +4521,37 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>336.33333333333331</v>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>335.66666666666669</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -3778,7 +4564,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3786,23 +4572,29 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -3815,7 +4607,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3823,23 +4615,29 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -3852,7 +4650,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3860,23 +4658,29 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -3889,7 +4693,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3897,19 +4701,25 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="str">
         <f>$C$1&amp;"_hydro-ror"</f>
@@ -3919,31 +4729,37 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+      <c r="E12" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -3956,7 +4772,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3964,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7" t="str">
         <f>IF(D13,"unit_online_variable_type_integer","")</f>
@@ -3974,13 +4790,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -3993,7 +4815,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4001,23 +4823,29 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -4030,7 +4858,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4038,26 +4866,32 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C16" t="str">
         <f>$C$1&amp;"_other-ren"</f>
@@ -4067,34 +4901,40 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>137</v>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>146</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="C17" t="str">
         <f>$C$1&amp;"_solar"</f>
@@ -4104,31 +4944,37 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>1013</v>
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
+        <v>1002</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>384</v>
@@ -4141,7 +4987,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="6">
         <f t="shared" si="1"/>
         <v>54.857142857142854</v>
       </c>
@@ -4149,23 +4995,29 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>1700</v>
@@ -4178,7 +5030,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
@@ -4186,26 +5038,32 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>4402</v>
+        <v>4423</v>
       </c>
       <c r="C20" t="str">
         <f>$C$1&amp;"_wind-on"</f>
@@ -4215,31 +5073,37 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>4402</v>
+      <c r="E20" s="6">
+        <f t="shared" si="1"/>
+        <v>4423</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4252,7 +5116,7 @@
         <f>IF(B21&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="6">
         <f>B21/F21</f>
         <v>0</v>
       </c>
@@ -4260,18 +5124,24 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4283,11 +5153,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B21)</f>
-        <v>15919</v>
+        <v>15846</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4296,21 +5166,20 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34185FE9-ED8F-4A26-B18C-A5B04A819B81}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34185FE9-ED8F-4A26-B18C-A5B04A819B81}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,44 +5189,54 @@
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f>Lithuania!B2+Latvia!B2+Estonia!B2</f>
-        <v>400</v>
+        <v>309</v>
       </c>
       <c r="C2" t="str">
         <f>$C$1&amp;"_biomass"</f>
@@ -4369,13 +5248,13 @@
       </c>
       <c r="E2" s="2">
         <f>B2/F2</f>
-        <v>66.666666666666671</v>
+        <v>51.5</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(D2,"unit_online_variable_type_integer","")</f>
@@ -4385,10 +5264,18 @@
         <f>IF(H2="",H2,"IntegerVariables")</f>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <v>30D</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(J2="",J2,"RollingHorizon")</f>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <f>Lithuania!B3+Latvia!B3+Estonia!B3</f>
@@ -4410,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>IF(D3,"unit_online_variable_type_integer","")</f>
@@ -4420,14 +5307,22 @@
         <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <f>Lithuania!B4+Latvia!B4+Estonia!B4</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" t="str">
         <f>$C$1&amp;"_gas-coal-derived"</f>
@@ -4439,30 +5334,38 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f t="shared" ref="H4:H8" si="3">IF(D4,"unit_online_variable_type_integer","")</f>
+        <f t="shared" ref="H4:H8" si="5">IF(D4,"unit_online_variable_type_integer","")</f>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <f>Lithuania!B5+Latvia!B5+Estonia!B5</f>
-        <v>2929</v>
+        <v>3116</v>
       </c>
       <c r="C5" t="str">
         <f>$C$1&amp;"_gas"</f>
@@ -4474,26 +5377,34 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>292.89999999999998</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <f>Lithuania!B6+Latvia!B6+Estonia!B6</f>
@@ -4515,20 +5426,28 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <f>Lithuania!B7+Latvia!B7+Estonia!B7</f>
@@ -4550,24 +5469,32 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <f>Lithuania!B8+Latvia!B8+Estonia!B8</f>
-        <v>1970</v>
+        <v>1976</v>
       </c>
       <c r="C8" t="str">
         <f>$C$1&amp;"_oil-shale"</f>
@@ -4579,26 +5506,34 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>656.66666666666663</v>
+        <v>658.66666666666663</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <f>Lithuania!B9+Latvia!B9+Estonia!B9</f>
@@ -4620,20 +5555,28 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f t="shared" ref="H9:H21" si="4">IF(D9,"unit_online_variable_type_integer","")</f>
+        <f t="shared" ref="H9:H21" si="6">IF(D9,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <f>Lithuania!B10+Latvia!B10+Estonia!B10</f>
@@ -4655,20 +5598,28 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <f>Lithuania!B11+Latvia!B11+Estonia!B11</f>
@@ -4690,24 +5641,32 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <f>Lithuania!B12+Latvia!B12+Estonia!B12</f>
-        <v>1714</v>
+        <v>1675</v>
       </c>
       <c r="C12" t="str">
         <f>$C$1&amp;"_hydro-ror"</f>
@@ -4719,26 +5678,34 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>342.8</v>
+        <v>335</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <f>Lithuania!B14+Latvia!B14+Estonia!B14</f>
@@ -4760,20 +5727,28 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <f>Lithuania!B15+Latvia!B15+Estonia!B15</f>
@@ -4795,24 +5770,32 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <f>Lithuania!B16+Latvia!B16+Estonia!B16</f>
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="C15" t="str">
         <f>$C$1&amp;"_other"</f>
@@ -4824,30 +5807,38 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>18.5</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <f>Lithuania!B17+Latvia!B17+Estonia!B17</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C16" t="str">
         <f>$C$1&amp;"_other-ren"</f>
@@ -4859,30 +5850,38 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <f>Lithuania!B18+Latvia!B18+Estonia!B18</f>
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="C17" t="str">
         <f>$C$1&amp;"_solar"</f>
@@ -4894,26 +5893,34 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <f>Lithuania!B19+Latvia!B19+Estonia!B19</f>
@@ -4935,20 +5942,28 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <f>Lithuania!B20+Latvia!B20+Estonia!B20</f>
@@ -4970,24 +5985,32 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <f>Lithuania!B21+Latvia!B21+Estonia!B21</f>
-        <v>937</v>
+        <v>1049</v>
       </c>
       <c r="C20" t="str">
         <f>$C$1&amp;"_wind-on"</f>
@@ -4999,26 +6022,34 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>937</v>
+        <v>1049</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>30D</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5039,31 +6070,39 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B21)</f>
-        <v>9369</v>
+        <v>9284</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5071,15 +6110,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9519268B-6DFC-4F17-9AE0-C851937FFD8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9519268B-6DFC-4F17-9AE0-C851937FFD8B}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5093,20 +6133,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -5114,7 +6154,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -5122,15 +6162,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1770</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -5138,7 +6178,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -5146,7 +6186,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -5154,7 +6194,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -5162,7 +6202,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -5170,7 +6210,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>900</v>
@@ -5178,7 +6218,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>128</v>
@@ -5186,7 +6226,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -5194,7 +6234,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -5202,7 +6242,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -5210,15 +6250,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>144</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -5226,15 +6266,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>22</v>
@@ -5242,7 +6282,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -5250,34 +6290,36 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>3699</v>
+        <f>SUBTOTAL(109,B2:B21)</f>
+        <v>3653</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82109B22-5D15-4ED2-94D2-20573C41FE08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82109B22-5D15-4ED2-94D2-20573C41FE08}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,20 +6333,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -5312,7 +6354,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -5320,15 +6362,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1026</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -5336,7 +6378,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -5344,7 +6386,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -5352,7 +6394,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -5360,7 +6402,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -5368,7 +6410,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -5376,15 +6418,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1578</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -5392,7 +6434,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -5400,7 +6442,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -5408,7 +6450,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -5416,7 +6458,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -5424,15 +6466,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -5440,7 +6482,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -5448,34 +6490,36 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>2832</v>
+        <f>SUBTOTAL(109,B2:B21)</f>
+        <v>2821</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3089FBF3-239A-4F4C-98A0-5721C5D290B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3089FBF3-239A-4F4C-98A0-5721C5D290B6}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5485,24 +6529,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5510,23 +6554,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5534,7 +6578,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -5542,15 +6586,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1970</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5558,7 +6602,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5566,7 +6610,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5574,7 +6618,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -5582,7 +6626,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5590,7 +6634,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5598,7 +6642,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5606,7 +6650,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5614,23 +6658,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5638,7 +6682,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5646,24 +6690,26 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>329</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>2838</v>
+        <f>SUBTOTAL(109,B2:B21)</f>
+        <v>2810</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5672,8 +6718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973FF12-FD18-40EC-9AFC-58211611AEEE}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5700,75 +6746,75 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>BAL!C11</f>
@@ -5779,10 +6825,10 @@
         <v>BAL_hydro-pumped_storage</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2">
         <f>ROUNDUP(J2*12/K2/10^3,0)*10^3</f>
@@ -5796,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2">
         <f>BAL!B11</f>
@@ -5813,16 +6859,16 @@
         <v>1</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -5839,7 +6885,7 @@
         <v>BAL_hydro-pumped_storage</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <f>BAL!F11</f>
@@ -5867,16 +6913,16 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2">
         <f>F2+8.2*10^3/K4</f>
@@ -5890,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4">
         <v>225</v>
@@ -5913,10 +6959,10 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
@@ -5925,19 +6971,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <f>SUM(F6:F15)</f>
@@ -5950,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" s="6">
         <f>SUM(J6:J15)</f>
@@ -5967,35 +7013,35 @@
         <v>1</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U5" s="3"/>
       <c r="W5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("NOR_hydro-pumped_storage_",_xlfn.TEXTAFTER(B6,"_",2))</f>
         <v>NOR_hydro-pumped_storage_Aurland_III</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>10000</v>
@@ -6007,7 +7053,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J6" s="6">
         <v>270</v>
@@ -6022,16 +7068,16 @@
         <v>1</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U6" s="3"/>
       <c r="W6" s="8"/>
@@ -6039,20 +7085,20 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C15" si="0">_xlfn.CONCAT("NOR_hydro-pumped_storage_",_xlfn.TEXTAFTER(B7,"_",2))</f>
         <v>NOR_hydro-pumped_storage_Brattingfoss</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>2000</v>
@@ -6064,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="6">
         <v>11</v>
@@ -6079,16 +7125,16 @@
         <v>1</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U7" s="3"/>
       <c r="W7" s="8"/>
@@ -6096,20 +7142,20 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>NOR_hydro-pumped_storage_Duge</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>500000</v>
@@ -6121,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="6">
         <v>200</v>
@@ -6136,16 +7182,16 @@
         <v>1</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U8" s="3"/>
       <c r="W8" s="8"/>
@@ -6153,20 +7199,20 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>NOR_hydro-pumped_storage_Herva</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>14000</v>
@@ -6178,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="6">
         <v>35</v>
@@ -6193,16 +7239,16 @@
         <v>1</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U9" s="3"/>
       <c r="W9" s="8"/>
@@ -6210,20 +7256,20 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>NOR_hydro-pumped_storage_Jukla</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>15000</v>
@@ -6235,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" s="6">
         <v>40</v>
@@ -6250,16 +7296,16 @@
         <v>1</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U10" s="3"/>
       <c r="W10" s="8"/>
@@ -6267,20 +7313,20 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>NOR_hydro-pumped_storage_Nygard</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>47000</v>
@@ -6292,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J11" s="6">
         <v>57.5</v>
@@ -6307,16 +7353,16 @@
         <v>1</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U11" s="3"/>
       <c r="W11" s="8"/>
@@ -6324,20 +7370,20 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>NOR_hydro-pumped_storage_Saurdal</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>247000</v>
@@ -6349,7 +7395,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="6">
         <v>640</v>
@@ -6364,16 +7410,16 @@
         <v>1</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U12" s="3"/>
       <c r="W12" s="8"/>
@@ -6381,20 +7427,20 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>NOR_hydro-pumped_storage_Stølsdal</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>500</v>
@@ -6406,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="6">
         <v>17</v>
@@ -6421,16 +7467,16 @@
         <v>1</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U13" s="3"/>
       <c r="W13" s="8"/>
@@ -6438,20 +7484,20 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>NOR_hydro-pumped_storage_Tevla</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>2000</v>
@@ -6463,7 +7509,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J14" s="6">
         <v>50</v>
@@ -6478,16 +7524,16 @@
         <v>1</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U14" s="3"/>
       <c r="W14" s="8"/>
@@ -6495,20 +7541,20 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>NOR_hydro-pumped_storage_Øljusjøen</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>14000</v>
@@ -6520,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" s="6">
         <v>49</v>
@@ -6535,16 +7581,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U15" s="3"/>
       <c r="W15" s="8"/>
@@ -6556,7 +7602,7 @@
         <v/>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ref="Q7:Q25" si="2">IF(P16="",P16,"IntegerVariables")</f>
+        <f t="shared" ref="Q16:Q25" si="2">IF(P16="",P16,"IntegerVariables")</f>
         <v/>
       </c>
     </row>

--- a/model-data/all_capacities.xlsx
+++ b/model-data/all_capacities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59531B67-950B-41AD-84A3-EA52A5F3D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F62AB-E24F-41C9-8BB5-D97BB6964DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
   </bookViews>
   <sheets>
     <sheet name="FIN" sheetId="6" r:id="rId1"/>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E20367-8F61-4CFD-AF92-8269AB06E53E}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,12 +1550,12 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
-        <v>30D</v>
+        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
+        <v>7D</v>
       </c>
       <c r="K2" t="str">
-        <f>IF(J2="",J2,"RollingHorizon")</f>
-        <v>RollingHorizon</v>
+        <f>IF(J2="",J2,"RollingFixDispatch")</f>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1592,11 +1592,11 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <f t="shared" ref="K3:K16" si="4">IF(J3="",J3,"RollingFixDispatch")</f>
         <v/>
       </c>
     </row>
@@ -1677,11 +1677,11 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1719,11 +1719,11 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1845,11 +1845,11 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1927,14 +1927,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1969,14 +1961,6 @@
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2004,7 +1988,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>IF(D13,"unit_online_variable_type_integer","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I13" t="str">
@@ -2055,11 +2039,11 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2097,11 +2081,11 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2139,11 +2123,11 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2171,22 +2155,7 @@
       <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2222,12 +2191,12 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
+        <f t="shared" ref="J18" si="6">IF(H18="unit_online_variable_type_integer","7D","")</f>
+        <v>7D</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <f t="shared" ref="K18" si="7">IF(J18="",J18,"RollingFixDispatch")</f>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2255,22 +2224,7 @@
       <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2297,22 +2251,7 @@
       <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2345,14 +2284,6 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2386,7 +2317,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="H11" sqref="H11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,11 +2402,11 @@
         <v/>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f>IF(J2="",J2,"RollingHorizon")</f>
+        <f>IF(J2="",J2,"RollingFixDispatch")</f>
         <v/>
       </c>
       <c r="L2" s="1"/>
@@ -2510,15 +2441,15 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I5" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <f t="shared" ref="K3:K16" si="4">IF(J3="",J3,"RollingFixDispatch")</f>
         <v/>
       </c>
       <c r="L3" s="1"/>
@@ -2549,7 +2480,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f t="shared" ref="H4:H5" si="5">IF(D4,"unit_online_variable_type_integer","")</f>
+        <f t="shared" ref="H4:H21" si="5">IF(D4,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I4" t="str">
@@ -2601,11 +2532,11 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -2635,11 +2566,11 @@
         <v>31</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f t="shared" ref="H6:H21" si="6">IF(D6,"unit_online_variable_type_integer","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I21" si="7">IF(H6="",H6,"IntegerVariables")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J6" t="str">
@@ -2678,11 +2609,11 @@
         <v>31</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J7" t="str">
@@ -2721,11 +2652,11 @@
         <v>31</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J8" t="str">
@@ -2764,11 +2695,11 @@
         <v>31</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" t="str">
@@ -2807,11 +2738,11 @@
         <v>31</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J10" t="str">
@@ -2842,20 +2773,12 @@
       </c>
       <c r="E11" s="2"/>
       <c r="H11" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -2885,20 +2808,12 @@
         <v>31</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
       </c>
       <c r="L12" s="1"/>
     </row>
@@ -2928,11 +2843,11 @@
         <v>31</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J13" t="str">
@@ -2971,11 +2886,11 @@
         <v>31</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J14" t="str">
@@ -3014,11 +2929,11 @@
         <v>31</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J15" t="str">
@@ -3057,11 +2972,11 @@
         <v>31</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J16" t="str">
@@ -3099,22 +3014,7 @@
       <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H17" s="7"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3143,19 +3043,19 @@
         <v>31</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J18" si="6">IF(H18="unit_online_variable_type_integer","7D","")</f>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K18" si="7">IF(J18="",J18,"RollingFixDispatch")</f>
         <v/>
       </c>
       <c r="L18" s="1"/>
@@ -3185,22 +3085,7 @@
       <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H19" s="7"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3228,22 +3113,7 @@
       <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="7"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
+      <c r="H20" s="7"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3272,20 +3142,12 @@
         <v>31</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -3324,7 +3186,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="H11" sqref="H11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,11 +3270,11 @@
         <v/>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f>IF(J2="",J2,"RollingHorizon")</f>
+        <f>IF(J2="",J2,"RollingFixDispatch")</f>
         <v/>
       </c>
       <c r="L2" s="1"/>
@@ -3451,11 +3313,11 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <f t="shared" ref="K3:K16" si="4">IF(J3="",J3,"RollingFixDispatch")</f>
         <v/>
       </c>
     </row>
@@ -3746,11 +3608,11 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3778,13 +3640,12 @@
       <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="4"/>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3821,14 +3682,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3856,7 +3709,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>IF(D13,"unit_online_variable_type_integer","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I13" t="str">
@@ -3907,11 +3760,11 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4023,22 +3876,7 @@
       <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4074,11 +3912,11 @@
         <v/>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J18" si="6">IF(H18="unit_online_variable_type_integer","7D","")</f>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K18" si="7">IF(J18="",J18,"RollingFixDispatch")</f>
         <v/>
       </c>
     </row>
@@ -4107,22 +3945,7 @@
       <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4149,22 +3972,7 @@
       <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4198,14 +4006,6 @@
       <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4241,7 +4041,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="H11" sqref="H11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4306,7 +4106,7 @@
         <f>IF(B2&gt;0,"True","False")</f>
         <v>True</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <f>B2/F2</f>
         <v>424</v>
       </c>
@@ -4325,12 +4125,12 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
-        <v>30D</v>
+        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
+        <v>7D</v>
       </c>
       <c r="K2" t="str">
-        <f>IF(J2="",J2,"RollingHorizon")</f>
-        <v>RollingHorizon</v>
+        <f>IF(J2="",J2,"RollingFixDispatch")</f>
+        <v>RollingFixDispatch</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -4349,7 +4149,7 @@
         <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E20" si="1">B3/F3</f>
         <v>0</v>
       </c>
@@ -4368,11 +4168,11 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <f t="shared" ref="K3:K16" si="4">IF(J3="",J3,"RollingFixDispatch")</f>
         <v/>
       </c>
       <c r="L3" s="1"/>
@@ -4392,7 +4192,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4435,7 +4235,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>140.46153846153845</v>
       </c>
@@ -4455,11 +4255,11 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -4478,7 +4278,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>609.33333333333337</v>
       </c>
@@ -4498,11 +4298,11 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -4521,7 +4321,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>335.66666666666669</v>
       </c>
@@ -4541,11 +4341,11 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -4564,7 +4364,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4607,7 +4407,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4650,7 +4450,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4693,7 +4493,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4703,13 +4503,12 @@
       <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="4"/>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L11" s="1"/>
@@ -4729,7 +4528,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4747,14 +4546,6 @@
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4772,7 +4563,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4783,7 +4574,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>IF(D13,"unit_online_variable_type_integer","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I13" t="str">
@@ -4815,7 +4606,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4858,7 +4649,7 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4901,7 +4692,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
@@ -4921,11 +4712,11 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
       <c r="L16" s="1"/>
     </row>
@@ -4944,7 +4735,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>1002</v>
       </c>
@@ -4954,22 +4745,7 @@
       <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
+      <c r="H17" s="7"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4987,7 +4763,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>54.857142857142854</v>
       </c>
@@ -5006,12 +4782,12 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
+        <f t="shared" ref="J18" si="6">IF(H18="unit_online_variable_type_integer","7D","")</f>
+        <v>7D</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <f t="shared" ref="K18" si="7">IF(J18="",J18,"RollingFixDispatch")</f>
+        <v>RollingFixDispatch</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -5030,7 +4806,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
@@ -5040,22 +4816,7 @@
       <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
+      <c r="H19" s="7"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5073,7 +4834,7 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>4423</v>
       </c>
@@ -5083,22 +4844,7 @@
       <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
+      <c r="H20" s="7"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -5116,7 +4862,7 @@
         <f>IF(B21&gt;0,"True","False")</f>
         <v>False</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="2">
         <f>B21/F21</f>
         <v>0</v>
       </c>
@@ -5132,14 +4878,6 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L21" s="1"/>
@@ -5178,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34185FE9-ED8F-4A26-B18C-A5B04A819B81}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,12 +5003,12 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
-        <v>30D</v>
+        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
+        <v>7D</v>
       </c>
       <c r="K2" t="str">
-        <f>IF(J2="",J2,"RollingHorizon")</f>
-        <v>RollingHorizon</v>
+        <f>IF(J2="",J2,"RollingFixDispatch")</f>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5308,11 +5046,11 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J21" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
+        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K21" si="4">IF(J3="",J3,"RollingHorizon")</f>
+        <f t="shared" ref="K3:K16" si="4">IF(J3="",J3,"RollingFixDispatch")</f>
         <v/>
       </c>
     </row>
@@ -5352,11 +5090,11 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5395,11 +5133,11 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5481,11 +5219,11 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5524,11 +5262,11 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5651,14 +5389,6 @@
         <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5687,20 +5417,12 @@
         <v>31</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H12" si="7">IF(D12,"unit_online_variable_type_integer","")</f>
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I12" si="8">IF(H12="",H12,"IntegerVariables")</f>
         <v>IntegerVariables</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5825,11 +5547,11 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5868,11 +5590,11 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>30D</v>
+        <v>7D</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5901,22 +5623,7 @@
       <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5953,12 +5660,12 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
+        <f t="shared" ref="J18" si="9">IF(H18="unit_online_variable_type_integer","7D","")</f>
+        <v>7D</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
+        <f t="shared" ref="K18" si="10">IF(J18="",J18,"RollingFixDispatch")</f>
+        <v>RollingFixDispatch</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5987,22 +5694,7 @@
       <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -6030,22 +5722,7 @@
       <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>30D</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingHorizon</v>
-      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -6078,14 +5755,6 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/model-data/all_capacities.xlsx
+++ b/model-data/all_capacities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F62AB-E24F-41C9-8BB5-D97BB6964DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F83CCF-607D-4C86-9BFE-173E906DFBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
   </bookViews>
   <sheets>
     <sheet name="FIN" sheetId="6" r:id="rId1"/>
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="80">
   <si>
     <t>Production Type</t>
   </si>
@@ -1007,6 +1007,24 @@
   </si>
   <si>
     <t>units_on_non_anticipativity_time</t>
+  </si>
+  <si>
+    <t>units_on__temporal_block</t>
+  </si>
+  <si>
+    <t>rolling_look_ahead_ST</t>
+  </si>
+  <si>
+    <t>rolling_look_ahead_ST_nuclear</t>
+  </si>
+  <si>
+    <t>false_active_alternative</t>
+  </si>
+  <si>
+    <t>active_alternative</t>
+  </si>
+  <si>
+    <t>RollingHorizon</t>
   </si>
 </sst>
 </file>
@@ -1460,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E20367-8F61-4CFD-AF92-8269AB06E53E}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,10 +1496,12 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1515,8 +1535,17 @@
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1550,15 +1579,24 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
-        <v>7D</v>
+        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <v>30D</v>
       </c>
       <c r="K2" t="str">
         <f>IF(J2="",J2,"RollingFixDispatch")</f>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1570,11 +1608,11 @@
         <v>FIN_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E21" si="1">B3/F3</f>
+        <f t="shared" ref="E3:E21" si="2">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -1588,11 +1626,11 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K3" t="str">
@@ -1600,7 +1638,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1612,11 +1650,11 @@
         <v>FIN_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -1630,11 +1668,11 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K4" t="str">
@@ -1642,7 +1680,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1654,11 +1692,11 @@
         <v>FIN_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109.70588235294117</v>
       </c>
       <c r="F5">
@@ -1672,19 +1710,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1696,11 +1726,11 @@
         <v>FIN_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>284.75</v>
       </c>
       <c r="F6">
@@ -1714,19 +1744,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1738,11 +1777,11 @@
         <v>FIN_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81.529411764705884</v>
       </c>
       <c r="F7">
@@ -1756,19 +1795,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1780,11 +1811,11 @@
         <v>FIN_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -1798,19 +1829,11 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1822,11 +1845,11 @@
         <v>FIN_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>227</v>
       </c>
       <c r="F9">
@@ -1840,19 +1863,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1864,11 +1896,11 @@
         <v>FIN_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -1882,11 +1914,11 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K10" t="str">
@@ -1894,7 +1926,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1906,11 +1938,11 @@
         <v>FIN_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -1924,11 +1956,11 @@
         <v/>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1940,11 +1972,11 @@
         <v>FIN_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.265306122448976</v>
       </c>
       <c r="F12">
@@ -1958,11 +1990,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1974,11 +2006,11 @@
         <v>FIN_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -1992,11 +2024,11 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K13" t="str">
@@ -2004,7 +2036,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2016,11 +2048,11 @@
         <v>FIN_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>556.4</v>
       </c>
       <c r="F14">
@@ -2034,19 +2066,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
+        <v>30D</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2058,11 +2099,11 @@
         <v>FIN_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="F15">
@@ -2076,19 +2117,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2100,11 +2150,11 @@
         <v>FIN_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>257</v>
       </c>
       <c r="F16">
@@ -2118,19 +2168,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2142,22 +2201,26 @@
         <v>FIN_solar</v>
       </c>
       <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2169,11 +2232,11 @@
         <v>FIN_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.333333333333336</v>
       </c>
       <c r="F18">
@@ -2187,19 +2250,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18" si="6">IF(H18="unit_online_variable_type_integer","7D","")</f>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="7">IF(J18="",J18,"RollingFixDispatch")</f>
+        <f t="shared" ref="K18" si="6">IF(J18="",J18,"RollingFixDispatch")</f>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2211,22 +2283,26 @@
         <v>FIN_wind-off</v>
       </c>
       <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2238,7 +2314,7 @@
         <v>FIN_wind-on</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E20" s="2">
@@ -2252,8 +2328,12 @@
         <v>31</v>
       </c>
       <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2269,7 +2349,7 @@
         <v>False</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21">
@@ -2283,18 +2363,18 @@
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2314,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411AD0E3-0831-47AD-A8A3-9FE0AF10CD42}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I12"/>
+      <selection activeCell="L2" sqref="L2:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,7 +2412,7 @@
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2366,9 +2446,17 @@
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2402,16 +2490,15 @@
         <v/>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
+        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K2" t="str">
         <f>IF(J2="",J2,"RollingFixDispatch")</f>
         <v/>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2423,11 +2510,11 @@
         <v>NOR_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
+        <f t="shared" ref="E3:E20" si="2">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -2441,20 +2528,19 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K16" si="4">IF(J3="",J3,"RollingFixDispatch")</f>
         <v/>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2466,11 +2552,11 @@
         <v>NOR_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -2484,20 +2570,19 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2509,11 +2594,11 @@
         <v>NOR_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="F5">
@@ -2527,20 +2612,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2552,11 +2628,11 @@
         <v>NOR_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6">
@@ -2570,20 +2646,19 @@
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2595,11 +2670,11 @@
         <v>NOR_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7">
@@ -2613,20 +2688,11 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2638,11 +2704,11 @@
         <v>NOR_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -2656,20 +2722,11 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2681,11 +2738,11 @@
         <v>NOR_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -2699,20 +2756,19 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2724,11 +2780,11 @@
         <v>NOR_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -2742,20 +2798,19 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2768,7 +2823,7 @@
         <v>NOR_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E11" s="2"/>
@@ -2777,12 +2832,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2794,11 +2848,11 @@
         <v>NOR_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.695652173913047</v>
       </c>
       <c r="F12">
@@ -2812,12 +2866,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2829,11 +2882,11 @@
         <v>NOR_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -2847,20 +2900,19 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2872,11 +2924,11 @@
         <v>NOR_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -2890,20 +2942,19 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2915,11 +2966,11 @@
         <v>NOR_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -2933,20 +2984,19 @@
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2958,11 +3008,11 @@
         <v>NOR_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -2976,18 +3026,17 @@
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -3001,21 +3050,24 @@
         <v>NOR_solar</v>
       </c>
       <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="L17" s="1"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3029,11 +3081,11 @@
         <v>NOR_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18">
@@ -3047,18 +3099,17 @@
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18" si="6">IF(H18="unit_online_variable_type_integer","7D","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="7">IF(J18="",J18,"RollingFixDispatch")</f>
-        <v/>
-      </c>
-      <c r="L18" s="1"/>
+        <f t="shared" ref="K18" si="6">IF(J18="",J18,"RollingFixDispatch")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -3072,21 +3123,24 @@
         <v>NOR_wind-off</v>
       </c>
       <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="L19" s="1"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3100,21 +3154,24 @@
         <v>NOR_wind-on</v>
       </c>
       <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>1232</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>1232</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="L20" s="1"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3146,10 +3203,9 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -3183,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3849322-F8A7-4330-820A-E439827D862B}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I12"/>
+      <selection activeCell="L15" sqref="L15:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,7 +3256,7 @@
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3234,9 +3290,17 @@
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3270,16 +3334,15 @@
         <v/>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
+        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K2" t="str">
         <f>IF(J2="",J2,"RollingFixDispatch")</f>
         <v/>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3291,11 +3354,11 @@
         <v>SWE_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
+        <f t="shared" ref="E3:E20" si="2">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -3309,11 +3372,11 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K3" t="str">
@@ -3321,7 +3384,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3333,11 +3396,11 @@
         <v>SWE_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -3351,11 +3414,11 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K4" t="str">
@@ -3363,7 +3426,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3375,11 +3438,11 @@
         <v>SWE_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5">
@@ -3393,19 +3456,11 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3417,11 +3472,11 @@
         <v>SWE_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6">
@@ -3435,11 +3490,11 @@
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K6" t="str">
@@ -3447,7 +3502,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3459,11 +3514,11 @@
         <v>SWE_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7">
@@ -3477,19 +3532,11 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3501,11 +3548,11 @@
         <v>SWE_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -3519,19 +3566,11 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3543,11 +3582,11 @@
         <v>SWE_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -3561,11 +3600,11 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K9" t="str">
@@ -3573,7 +3612,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3585,11 +3624,11 @@
         <v>SWE_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8408</v>
       </c>
       <c r="F10">
@@ -3603,19 +3642,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3627,11 +3675,11 @@
         <v>SWE_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -3645,11 +3693,11 @@
         <v/>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3661,11 +3709,11 @@
         <v>SWE_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -3679,11 +3727,11 @@
         <v/>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -3695,11 +3743,11 @@
         <v>SWE_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -3713,11 +3761,11 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K13" t="str">
@@ -3725,7 +3773,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3737,11 +3785,11 @@
         <v>SWE_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1433.8333333333333</v>
       </c>
       <c r="F14">
@@ -3755,19 +3803,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
+        <v>30D</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -3779,11 +3836,11 @@
         <v>SWE_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -3797,11 +3854,11 @@
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K15" t="str">
@@ -3809,7 +3866,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3821,11 +3878,11 @@
         <v>SWE_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -3839,11 +3896,11 @@
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K16" t="str">
@@ -3863,20 +3920,24 @@
         <v>SWE_solar</v>
       </c>
       <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3890,11 +3951,11 @@
         <v>SWE_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18">
@@ -3908,15 +3969,15 @@
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18" si="6">IF(H18="unit_online_variable_type_integer","7D","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="7">IF(J18="",J18,"RollingFixDispatch")</f>
+        <f t="shared" ref="K18" si="6">IF(J18="",J18,"RollingFixDispatch")</f>
         <v/>
       </c>
     </row>
@@ -3932,20 +3993,24 @@
         <v>SWE_wind-off</v>
       </c>
       <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3959,20 +4024,24 @@
         <v>SWE_wind-on</v>
       </c>
       <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>6247</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>6247</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4004,7 +4073,7 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
     </row>
@@ -4038,10 +4107,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E822D84-1F53-430A-8772-9025C443B1F5}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I12"/>
+      <selection activeCell="L9" sqref="L9:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4055,7 +4124,7 @@
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4089,9 +4158,17 @@
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4125,16 +4202,24 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
-        <v>7D</v>
+        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <v>30D</v>
       </c>
       <c r="K2" t="str">
         <f>IF(J2="",J2,"RollingFixDispatch")</f>
         <v>RollingFixDispatch</v>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4146,11 +4231,11 @@
         <v>DEN_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
+        <f t="shared" ref="E3:E20" si="2">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -4164,20 +4249,19 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K16" si="4">IF(J3="",J3,"RollingFixDispatch")</f>
         <v/>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4189,11 +4273,11 @@
         <v>DEN_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -4207,20 +4291,19 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4232,11 +4315,11 @@
         <v>DEN_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140.46153846153845</v>
       </c>
       <c r="F5">
@@ -4250,20 +4333,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4275,11 +4349,11 @@
         <v>DEN_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>609.33333333333337</v>
       </c>
       <c r="F6">
@@ -4293,20 +4367,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4318,11 +4400,11 @@
         <v>DEN_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>335.66666666666669</v>
       </c>
       <c r="F7">
@@ -4336,20 +4418,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4361,11 +4434,11 @@
         <v>DEN_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -4379,20 +4452,11 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4404,11 +4468,11 @@
         <v>DEN_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -4422,20 +4486,19 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4447,11 +4510,11 @@
         <v>DEN_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -4465,20 +4528,19 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4490,11 +4552,11 @@
         <v>DEN_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -4508,12 +4570,11 @@
         <v/>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4525,11 +4586,11 @@
         <v>DEN_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F12">
@@ -4543,12 +4604,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -4560,11 +4620,11 @@
         <v>DEN_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -4578,20 +4638,19 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -4603,11 +4662,11 @@
         <v>DEN_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -4621,20 +4680,19 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -4646,11 +4704,11 @@
         <v>DEN_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -4664,20 +4722,19 @@
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -4689,11 +4746,11 @@
         <v>DEN_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="F16">
@@ -4707,20 +4764,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -4732,23 +4797,26 @@
         <v>DEN_solar</v>
       </c>
       <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>1002</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>1002</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -4760,11 +4828,11 @@
         <v>DEN_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.857142857142854</v>
       </c>
       <c r="F18">
@@ -4778,20 +4846,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18" si="6">IF(H18="unit_online_variable_type_integer","7D","")</f>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="7">IF(J18="",J18,"RollingFixDispatch")</f>
+        <f t="shared" ref="K18" si="6">IF(J18="",J18,"RollingFixDispatch")</f>
         <v>RollingFixDispatch</v>
       </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -4803,23 +4879,26 @@
         <v>DEN_wind-off</v>
       </c>
       <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>1700</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -4831,23 +4910,26 @@
         <v>DEN_wind-on</v>
       </c>
       <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>4423</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>4423</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -4877,19 +4959,18 @@
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -4901,7 +4982,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="L24" s="1"/>
@@ -4914,10 +4995,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34185FE9-ED8F-4A26-B18C-A5B04A819B81}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4933,7 +5014,7 @@
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4967,8 +5048,17 @@
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5003,15 +5093,24 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(H2="unit_online_variable_type_integer","7D","")</f>
-        <v>7D</v>
+        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <v>30D</v>
       </c>
       <c r="K2" t="str">
         <f>IF(J2="",J2,"RollingFixDispatch")</f>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5024,11 +5123,11 @@
         <v>BAL_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
+        <f t="shared" ref="E3:E20" si="2">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -5042,11 +5141,11 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J16" si="3">IF(H3="unit_online_variable_type_integer","7D","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K3" t="str">
@@ -5054,7 +5153,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5067,11 +5166,11 @@
         <v>BAL_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="F4">
@@ -5085,19 +5184,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5110,11 +5218,11 @@
         <v>BAL_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>311.60000000000002</v>
       </c>
       <c r="F5">
@@ -5128,19 +5236,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5153,11 +5253,11 @@
         <v>BAL_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6">
@@ -5171,11 +5271,11 @@
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K6" t="str">
@@ -5183,7 +5283,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5196,11 +5296,11 @@
         <v>BAL_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F7">
@@ -5214,19 +5314,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5239,11 +5331,11 @@
         <v>BAL_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.66666666666663</v>
       </c>
       <c r="F8">
@@ -5257,19 +5349,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5282,11 +5366,11 @@
         <v>BAL_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -5300,11 +5384,11 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K9" t="str">
@@ -5312,7 +5396,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5325,11 +5409,11 @@
         <v>BAL_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -5343,11 +5427,11 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K10" t="str">
@@ -5355,7 +5439,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5368,11 +5452,11 @@
         <v>BAL_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="F11">
@@ -5386,11 +5470,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5403,11 +5487,11 @@
         <v>BAL_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>335</v>
       </c>
       <c r="F12">
@@ -5425,7 +5509,7 @@
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5438,11 +5522,11 @@
         <v>BAL_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -5456,11 +5540,11 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K13" t="str">
@@ -5468,7 +5552,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5481,11 +5565,11 @@
         <v>BAL_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>False</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -5499,11 +5583,11 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K14" t="str">
@@ -5511,7 +5595,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -5524,11 +5608,11 @@
         <v>BAL_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
       <c r="F15">
@@ -5542,19 +5626,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5567,11 +5660,11 @@
         <v>BAL_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F16">
@@ -5585,19 +5678,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5610,22 +5712,26 @@
         <v>BAL_solar</v>
       </c>
       <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5638,11 +5744,11 @@
         <v>BAL_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>True</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.666666666666666</v>
       </c>
       <c r="F18">
@@ -5656,19 +5762,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18" si="9">IF(H18="unit_online_variable_type_integer","7D","")</f>
-        <v>7D</v>
+        <f t="shared" si="0"/>
+        <v>30D</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="10">IF(J18="",J18,"RollingFixDispatch")</f>
+        <f t="shared" ref="K18" si="9">IF(J18="",J18,"RollingFixDispatch")</f>
         <v>RollingFixDispatch</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5681,22 +5796,26 @@
         <v>BAL_wind-off</v>
       </c>
       <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5709,22 +5828,26 @@
         <v>BAL_wind-on</v>
       </c>
       <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>1049</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>1049</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -5754,18 +5877,18 @@
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>

--- a/model-data/all_capacities.xlsx
+++ b/model-data/all_capacities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F83CCF-607D-4C86-9BFE-173E906DFBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC64D67-C213-4CAB-B95B-B7AC1A252C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1BAD80D3-B61F-4294-A8B7-2B0091A5E784}"/>
   </bookViews>
   <sheets>
     <sheet name="FIN" sheetId="6" r:id="rId1"/>
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="80">
   <si>
     <t>Production Type</t>
   </si>
@@ -940,91 +940,91 @@
     <t>Source 1</t>
   </si>
   <si>
+    <t>source 3</t>
+  </si>
+  <si>
+    <t>source 4</t>
+  </si>
+  <si>
+    <t>BAL_hydro-pumped_ext</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Øljusjøen</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Tevla</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Stølsdal</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Saurdal</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Nygard</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Jukla</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Herva</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Duge</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Brattingfoss</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_Aurland_III</t>
+  </si>
+  <si>
+    <t>Source 2</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped</t>
+  </si>
+  <si>
+    <t>initial_node_state</t>
+  </si>
+  <si>
+    <t>unit_online_variable_type_integer</t>
+  </si>
+  <si>
+    <t>IntegerVariables</t>
+  </si>
+  <si>
+    <t>Aggregated capacity 2018 [MW]</t>
+  </si>
+  <si>
+    <t>units_on_non_anticipativity_time</t>
+  </si>
+  <si>
+    <t>units_on__temporal_block</t>
+  </si>
+  <si>
+    <t>false_active_alternative</t>
+  </si>
+  <si>
+    <t>active_alternative</t>
+  </si>
+  <si>
+    <t>RollingHorizon</t>
+  </si>
+  <si>
     <t>BAL_hydro-pumped_storage</t>
   </si>
   <si>
-    <t>source 3</t>
-  </si>
-  <si>
-    <t>source 4</t>
-  </si>
-  <si>
-    <t>BAL_hydro-pumped_ext</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_storage</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Øljusjøen</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Tevla</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Stølsdal</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Saurdal</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Nygard</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Jukla</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Herva</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Duge</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Brattingfoss</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped_Aurland_III</t>
-  </si>
-  <si>
-    <t>Source 2</t>
-  </si>
-  <si>
-    <t>NOR_hydro-pumped</t>
-  </si>
-  <si>
-    <t>initial_node_state</t>
-  </si>
-  <si>
-    <t>unit_online_variable_type_integer</t>
-  </si>
-  <si>
-    <t>IntegerVariables</t>
-  </si>
-  <si>
-    <t>Aggregated capacity 2018 [MW]</t>
-  </si>
-  <si>
-    <t>units_on_non_anticipativity_time</t>
-  </si>
-  <si>
-    <t>units_on__temporal_block</t>
-  </si>
-  <si>
-    <t>rolling_look_ahead_ST</t>
-  </si>
-  <si>
-    <t>rolling_look_ahead_ST_nuclear</t>
-  </si>
-  <si>
-    <t>false_active_alternative</t>
-  </si>
-  <si>
-    <t>active_alternative</t>
-  </si>
-  <si>
-    <t>RollingHorizon</t>
+    <t>rolling_lookahead_ST</t>
+  </si>
+  <si>
+    <t>rolling_lookahead_ST_nuclear</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E20367-8F61-4CFD-AF92-8269AB06E53E}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,12 +1501,12 @@
     <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -1530,22 +1530,22 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
         <v>30D</v>
       </c>
       <c r="K2" t="str">
@@ -1587,16 +1587,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1608,11 +1608,11 @@
         <v>FIN_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E21" si="2">B3/F3</f>
+        <f t="shared" ref="E3:E21" si="1">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -1626,11 +1626,11 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J6" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
@@ -1638,7 +1638,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1650,11 +1650,11 @@
         <v>FIN_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -1668,19 +1668,11 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1692,11 +1684,11 @@
         <v>FIN_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>109.70588235294117</v>
       </c>
       <c r="F5">
@@ -1710,11 +1702,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1726,11 +1718,11 @@
         <v>FIN_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>284.75</v>
       </c>
       <c r="F6">
@@ -1744,11 +1736,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
         <v>30D</v>
       </c>
       <c r="K6" t="str">
@@ -1756,16 +1748,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1777,11 +1769,11 @@
         <v>FIN_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81.529411764705884</v>
       </c>
       <c r="F7">
@@ -1795,11 +1787,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1811,11 +1803,11 @@
         <v>FIN_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -1829,11 +1821,11 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1845,11 +1837,11 @@
         <v>FIN_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>227</v>
       </c>
       <c r="F9">
@@ -1863,11 +1855,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J9:J10" si="6">IF(H9="unit_online_variable_type_integer","30D","")</f>
         <v>30D</v>
       </c>
       <c r="K9" t="str">
@@ -1875,16 +1867,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
       </c>
-      <c r="N9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1896,11 +1888,11 @@
         <v>FIN_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -1914,11 +1906,11 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K10" t="str">
@@ -1926,7 +1918,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1938,11 +1930,11 @@
         <v>FIN_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -1956,11 +1948,11 @@
         <v/>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1972,11 +1964,11 @@
         <v>FIN_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64.265306122448976</v>
       </c>
       <c r="F12">
@@ -1985,16 +1977,9 @@
       <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v>IntegerVariables</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2006,11 +1991,11 @@
         <v>FIN_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -2024,19 +2009,11 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2048,11 +2025,11 @@
         <v>FIN_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>556.4</v>
       </c>
       <c r="F14">
@@ -2066,11 +2043,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
+        <f t="shared" ref="J14:J18" si="7">IF(H14="unit_online_variable_type_integer","30D","")</f>
         <v>30D</v>
       </c>
       <c r="K14" t="str">
@@ -2078,16 +2055,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>
       </c>
-      <c r="N14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2099,11 +2076,11 @@
         <v>FIN_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>181</v>
       </c>
       <c r="F15">
@@ -2117,11 +2094,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>30D</v>
       </c>
       <c r="K15" t="str">
@@ -2129,16 +2106,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M15" t="s">
         <v>37</v>
       </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2150,11 +2127,11 @@
         <v>FIN_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>257</v>
       </c>
       <c r="F16">
@@ -2163,33 +2140,9 @@
       <c r="G16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>30D</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-      <c r="L16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2201,11 +2154,11 @@
         <v>FIN_solar</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17">
@@ -2215,12 +2168,8 @@
         <v>31</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2232,11 +2181,11 @@
         <v>FIN_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52.333333333333336</v>
       </c>
       <c r="F18">
@@ -2250,28 +2199,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>30D</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="6">IF(J18="",J18,"RollingFixDispatch")</f>
+        <f t="shared" ref="K18" si="8">IF(J18="",J18,"RollingFixDispatch")</f>
         <v>RollingFixDispatch</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M18" t="s">
         <v>37</v>
       </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2283,11 +2232,11 @@
         <v>FIN_wind-off</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19">
@@ -2297,12 +2246,8 @@
         <v>31</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2314,7 +2259,7 @@
         <v>FIN_wind-on</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E20" s="2">
@@ -2328,12 +2273,8 @@
         <v>31</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2349,7 +2290,7 @@
         <v>False</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21">
@@ -2363,18 +2304,18 @@
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2396,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411AD0E3-0831-47AD-A8A3-9FE0AF10CD42}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -2441,19 +2382,19 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2490,7 +2431,7 @@
         <v/>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K2" t="str">
@@ -2510,11 +2451,11 @@
         <v>NOR_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E20" si="2">B3/F3</f>
+        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -2528,11 +2469,11 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J6" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
@@ -2552,11 +2493,11 @@
         <v>NOR_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -2570,15 +2511,7 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2594,11 +2527,11 @@
         <v>NOR_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="F5">
@@ -2612,7 +2545,7 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
@@ -2628,11 +2561,11 @@
         <v>NOR_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
@@ -2646,11 +2579,11 @@
         <v/>
       </c>
       <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K6" t="str">
@@ -2670,11 +2603,11 @@
         <v>NOR_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7">
@@ -2688,7 +2621,7 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2704,11 +2637,11 @@
         <v>NOR_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -2722,7 +2655,7 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2738,11 +2671,11 @@
         <v>NOR_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -2756,11 +2689,11 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J9:J10" si="6">IF(H9="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K9" t="str">
@@ -2780,11 +2713,11 @@
         <v>NOR_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -2798,11 +2731,11 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K10" t="str">
@@ -2823,7 +2756,7 @@
         <v>NOR_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E11" s="2"/>
@@ -2832,7 +2765,7 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
@@ -2848,11 +2781,11 @@
         <v>NOR_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34.695652173913047</v>
       </c>
       <c r="F12">
@@ -2861,14 +2794,7 @@
       <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v>IntegerVariables</v>
-      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2882,11 +2808,11 @@
         <v>NOR_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -2900,15 +2826,7 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2924,11 +2842,11 @@
         <v>NOR_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -2942,15 +2860,11 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
-        <v/>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J14:J18" si="7">IF(H14="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
     </row>
@@ -2966,11 +2880,11 @@
         <v>NOR_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -2984,15 +2898,11 @@
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3008,11 +2918,11 @@
         <v>NOR_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -3026,15 +2936,7 @@
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3050,11 +2952,11 @@
         <v>NOR_solar</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17">
@@ -3064,10 +2966,6 @@
         <v>31</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3081,11 +2979,11 @@
         <v>NOR_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18">
@@ -3099,15 +2997,15 @@
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="6">IF(J18="",J18,"RollingFixDispatch")</f>
+        <f t="shared" ref="K18" si="8">IF(J18="",J18,"RollingFixDispatch")</f>
         <v/>
       </c>
     </row>
@@ -3123,11 +3021,11 @@
         <v>NOR_wind-off</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19">
@@ -3137,10 +3035,6 @@
         <v>31</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3154,11 +3048,11 @@
         <v>NOR_wind-on</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1232</v>
       </c>
       <c r="F20">
@@ -3168,10 +3062,6 @@
         <v>31</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3203,7 +3093,7 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
@@ -3239,10 +3129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3849322-F8A7-4330-820A-E439827D862B}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:N21"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,14 +3144,15 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -3285,22 +3176,22 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3334,7 +3225,7 @@
         <v/>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K2" t="str">
@@ -3342,7 +3233,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3354,11 +3245,11 @@
         <v>SWE_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E20" si="2">B3/F3</f>
+        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -3372,11 +3263,11 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J6" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
@@ -3384,7 +3275,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3396,11 +3287,11 @@
         <v>SWE_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -3414,19 +3305,11 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3438,11 +3321,11 @@
         <v>SWE_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5">
@@ -3456,11 +3339,11 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3472,11 +3355,11 @@
         <v>SWE_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
@@ -3490,11 +3373,11 @@
         <v/>
       </c>
       <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K6" t="str">
@@ -3502,7 +3385,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3514,11 +3397,11 @@
         <v>SWE_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7">
@@ -3532,11 +3415,11 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3548,11 +3431,11 @@
         <v>SWE_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -3566,11 +3449,11 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3582,11 +3465,11 @@
         <v>SWE_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -3600,11 +3483,11 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J9:J10" si="6">IF(H9="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K9" t="str">
@@ -3612,7 +3495,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3624,11 +3507,11 @@
         <v>SWE_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8408</v>
       </c>
       <c r="F10">
@@ -3642,11 +3525,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>30D</v>
       </c>
       <c r="K10" t="str">
@@ -3654,16 +3537,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
         <v>37</v>
       </c>
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3675,11 +3558,11 @@
         <v>SWE_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -3693,11 +3576,11 @@
         <v/>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3709,11 +3592,11 @@
         <v>SWE_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -3727,11 +3610,11 @@
         <v/>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -3743,11 +3626,11 @@
         <v>SWE_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -3761,19 +3644,11 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3785,11 +3660,11 @@
         <v>SWE_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1433.8333333333333</v>
       </c>
       <c r="F14">
@@ -3803,11 +3678,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
+        <f t="shared" ref="J14:J18" si="7">IF(H14="unit_online_variable_type_integer","30D","")</f>
         <v>30D</v>
       </c>
       <c r="K14" t="str">
@@ -3815,16 +3690,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>
       </c>
-      <c r="N14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -3836,11 +3711,11 @@
         <v>SWE_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -3854,11 +3729,11 @@
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K15" t="str">
@@ -3866,7 +3741,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3878,11 +3753,11 @@
         <v>SWE_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -3896,15 +3771,7 @@
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3920,11 +3787,11 @@
         <v>SWE_solar</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="F17">
@@ -3934,10 +3801,6 @@
         <v>31</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3951,11 +3814,11 @@
         <v>SWE_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18">
@@ -3969,15 +3832,15 @@
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="6">IF(J18="",J18,"RollingFixDispatch")</f>
+        <f t="shared" ref="K18" si="8">IF(J18="",J18,"RollingFixDispatch")</f>
         <v/>
       </c>
     </row>
@@ -3993,11 +3856,11 @@
         <v>SWE_wind-off</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19">
@@ -4007,10 +3870,6 @@
         <v>31</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4024,11 +3883,11 @@
         <v>SWE_wind-on</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6247</v>
       </c>
       <c r="F20">
@@ -4038,10 +3897,6 @@
         <v>31</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4073,7 +3928,7 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
@@ -4107,10 +3962,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E822D84-1F53-430A-8772-9025C443B1F5}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:N15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,14 +3977,15 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -4153,22 +4009,22 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4202,7 +4058,7 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
         <v>30D</v>
       </c>
       <c r="K2" t="str">
@@ -4210,16 +4066,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4231,11 +4087,11 @@
         <v>DEN_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E20" si="2">B3/F3</f>
+        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -4249,11 +4105,11 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J6" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
@@ -4261,7 +4117,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4273,11 +4129,11 @@
         <v>DEN_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -4291,19 +4147,11 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4315,11 +4163,11 @@
         <v>DEN_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140.46153846153845</v>
       </c>
       <c r="F5">
@@ -4333,11 +4181,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4349,11 +4197,11 @@
         <v>DEN_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>609.33333333333337</v>
       </c>
       <c r="F6">
@@ -4367,11 +4215,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>IntegerVariables</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
         <v>30D</v>
       </c>
       <c r="K6" t="str">
@@ -4379,16 +4227,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4400,11 +4248,11 @@
         <v>DEN_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>335.66666666666669</v>
       </c>
       <c r="F7">
@@ -4418,11 +4266,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4434,11 +4282,11 @@
         <v>DEN_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -4452,11 +4300,11 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4468,11 +4316,11 @@
         <v>DEN_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -4486,11 +4334,11 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J9:J10" si="6">IF(H9="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K9" t="str">
@@ -4498,7 +4346,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4510,11 +4358,11 @@
         <v>DEN_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -4528,11 +4376,11 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K10" t="str">
@@ -4540,7 +4388,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4552,11 +4400,11 @@
         <v>DEN_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -4570,11 +4418,11 @@
         <v/>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4586,11 +4434,11 @@
         <v>DEN_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F12">
@@ -4599,16 +4447,9 @@
       <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v>IntegerVariables</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -4620,11 +4461,11 @@
         <v>DEN_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -4638,19 +4479,11 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -4662,11 +4495,11 @@
         <v>DEN_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -4680,19 +4513,15 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
-        <v/>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J14:J18" si="7">IF(H14="unit_online_variable_type_integer","30D","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -4704,11 +4533,11 @@
         <v>DEN_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -4722,19 +4551,15 @@
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -4746,11 +4571,11 @@
         <v>DEN_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
       <c r="F16">
@@ -4759,33 +4584,9 @@
       <c r="G16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>30D</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-      <c r="L16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -4797,11 +4598,11 @@
         <v>DEN_solar</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1002</v>
       </c>
       <c r="F17">
@@ -4811,12 +4612,8 @@
         <v>31</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -4828,11 +4625,11 @@
         <v>DEN_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54.857142857142854</v>
       </c>
       <c r="F18">
@@ -4846,28 +4643,28 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>30D</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="6">IF(J18="",J18,"RollingFixDispatch")</f>
+        <f t="shared" ref="K18" si="8">IF(J18="",J18,"RollingFixDispatch")</f>
         <v>RollingFixDispatch</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M18" t="s">
         <v>37</v>
       </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -4879,11 +4676,11 @@
         <v>DEN_wind-off</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1700</v>
       </c>
       <c r="F19">
@@ -4893,12 +4690,8 @@
         <v>31</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -4910,11 +4703,11 @@
         <v>DEN_wind-on</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4423</v>
       </c>
       <c r="F20">
@@ -4924,12 +4717,8 @@
         <v>31</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -4955,22 +4744,22 @@
         <v>31</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H21" si="9">IF(D21,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I21" si="10">IF(H21="",H21,"IntegerVariables")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -4982,7 +4771,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="L24" s="1"/>
@@ -4995,10 +4784,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34185FE9-ED8F-4A26-B18C-A5B04A819B81}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5012,14 +4801,15 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -5043,22 +4833,22 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5093,7 +4883,7 @@
         <v>IntegerVariables</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J21" si="0">IF(H2="unit_online_variable_type_integer","30D","")</f>
+        <f>IF(H2="unit_online_variable_type_integer","30D","")</f>
         <v>30D</v>
       </c>
       <c r="K2" t="str">
@@ -5101,16 +4891,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5123,11 +4913,11 @@
         <v>BAL_brown-coal_lignite</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="1">IF(B3&gt;0,"True","False")</f>
+        <f t="shared" ref="D3:D20" si="0">IF(B3&gt;0,"True","False")</f>
         <v>False</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E20" si="2">B3/F3</f>
+        <f t="shared" ref="E3:E20" si="1">B3/F3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -5141,11 +4931,11 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="3">IF(H3="",H3,"IntegerVariables")</f>
+        <f t="shared" ref="I3:I21" si="2">IF(H3="",H3,"IntegerVariables")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J6" si="3">IF(H3="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K3" t="str">
@@ -5153,7 +4943,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5166,11 +4956,11 @@
         <v>BAL_gas-coal-derived</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="F4">
@@ -5184,28 +4974,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>30D</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5218,11 +4991,11 @@
         <v>BAL_gas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>311.60000000000002</v>
       </c>
       <c r="F5">
@@ -5236,11 +5009,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5253,11 +5026,11 @@
         <v>BAL_hard-coal</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
@@ -5271,11 +5044,11 @@
         <v/>
       </c>
       <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K6" t="str">
@@ -5283,7 +5056,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5296,11 +5069,11 @@
         <v>BAL_oil</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F7">
@@ -5314,11 +5087,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5331,11 +5104,11 @@
         <v>BAL_oil-shale</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>658.66666666666663</v>
       </c>
       <c r="F8">
@@ -5349,11 +5122,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5366,11 +5139,11 @@
         <v>BAL_peat</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -5384,11 +5157,11 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J9:J10" si="7">IF(H9="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K9" t="str">
@@ -5396,7 +5169,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5409,11 +5182,11 @@
         <v>BAL_geothermal</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -5427,11 +5200,11 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K10" t="str">
@@ -5439,7 +5212,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5452,11 +5225,11 @@
         <v>BAL_hydro-pumped</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="F11">
@@ -5470,11 +5243,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5487,11 +5260,11 @@
         <v>BAL_hydro-ror</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>335</v>
       </c>
       <c r="F12">
@@ -5500,16 +5273,9 @@
       <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" ref="H12" si="7">IF(D12,"unit_online_variable_type_integer","")</f>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" ref="I12" si="8">IF(H12="",H12,"IntegerVariables")</f>
-        <v>IntegerVariables</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5522,11 +5288,11 @@
         <v>BAL_marine</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -5540,19 +5306,11 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5565,11 +5323,11 @@
         <v>BAL_nuclear</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -5583,11 +5341,11 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f>IF(H14="unit_online_variable_type_integer","30D","")</f>
+        <f t="shared" ref="J14:J18" si="8">IF(H14="unit_online_variable_type_integer","30D","")</f>
         <v/>
       </c>
       <c r="K14" t="str">
@@ -5595,7 +5353,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -5608,11 +5366,11 @@
         <v>BAL_other</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
       <c r="F15">
@@ -5626,11 +5384,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30D</v>
       </c>
       <c r="K15" t="str">
@@ -5638,16 +5396,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M15" t="s">
         <v>37</v>
       </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5660,11 +5418,11 @@
         <v>BAL_other-ren</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F16">
@@ -5673,33 +5431,9 @@
       <c r="G16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>unit_online_variable_type_integer</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>IntegerVariables</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>30D</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="4"/>
-        <v>RollingFixDispatch</v>
-      </c>
-      <c r="L16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5712,11 +5446,11 @@
         <v>BAL_solar</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="F17">
@@ -5726,12 +5460,8 @@
         <v>31</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5744,11 +5474,11 @@
         <v>BAL_waste</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
       <c r="F18">
@@ -5762,11 +5492,11 @@
         <v>unit_online_variable_type_integer</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IntegerVariables</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30D</v>
       </c>
       <c r="K18" t="str">
@@ -5774,16 +5504,16 @@
         <v>RollingFixDispatch</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M18" t="s">
         <v>37</v>
       </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5796,11 +5526,11 @@
         <v>BAL_wind-off</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>False</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19">
@@ -5810,12 +5540,8 @@
         <v>31</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5828,11 +5554,11 @@
         <v>BAL_wind-on</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>True</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1049</v>
       </c>
       <c r="F20">
@@ -5842,12 +5568,8 @@
         <v>31</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -5873,22 +5595,22 @@
         <v>31</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H21" si="10">IF(D21,"unit_online_variable_type_integer","")</f>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I21" si="11">IF(H21="",H21,"IntegerVariables")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5925,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6325,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6511,7 +6233,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6556,7 +6278,7 @@
         <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
         <v>29</v>
@@ -6650,6 +6372,7 @@
       <c r="N2">
         <v>1</v>
       </c>
+      <c r="R2" s="7"/>
       <c r="W2" s="8" t="s">
         <v>44</v>
       </c>
@@ -6657,10 +6380,10 @@
         <v>45</v>
       </c>
       <c r="Y2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -6708,10 +6431,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -6750,12 +6473,7 @@
         <f>110/M4</f>
         <v>0.48888888888888887</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
+      <c r="R4" s="7"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
@@ -6766,10 +6484,10 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -6805,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S5" t="s">
         <v>31</v>
@@ -6815,7 +6533,7 @@
         <v>50</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -6823,7 +6541,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("NOR_hydro-pumped_storage_",_xlfn.TEXTAFTER(B6,"_",2))</f>
@@ -6860,13 +6578,13 @@
         <v>1</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" t="s">
-        <v>71</v>
-      </c>
       <c r="R6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S6" t="s">
         <v>37</v>
@@ -6880,7 +6598,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C15" si="0">_xlfn.CONCAT("NOR_hydro-pumped_storage_",_xlfn.TEXTAFTER(B7,"_",2))</f>
@@ -6917,13 +6635,13 @@
         <v>1</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" t="s">
-        <v>71</v>
-      </c>
       <c r="R7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s">
         <v>37</v>
@@ -6937,7 +6655,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -6974,13 +6692,13 @@
         <v>1</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" t="s">
-        <v>71</v>
-      </c>
       <c r="R8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S8" t="s">
         <v>37</v>
@@ -6994,7 +6712,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -7031,13 +6749,13 @@
         <v>1</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" t="s">
-        <v>71</v>
-      </c>
       <c r="R9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S9" t="s">
         <v>37</v>
@@ -7051,7 +6769,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -7088,13 +6806,13 @@
         <v>1</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" t="s">
-        <v>71</v>
-      </c>
       <c r="R10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S10" t="s">
         <v>37</v>
@@ -7108,7 +6826,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -7145,13 +6863,13 @@
         <v>1</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" t="s">
-        <v>71</v>
-      </c>
       <c r="R11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S11" t="s">
         <v>37</v>
@@ -7165,7 +6883,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -7202,13 +6920,13 @@
         <v>1</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" t="s">
         <v>70</v>
       </c>
-      <c r="Q12" t="s">
-        <v>71</v>
-      </c>
       <c r="R12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S12" t="s">
         <v>37</v>
@@ -7222,7 +6940,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -7259,13 +6977,13 @@
         <v>1</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" t="s">
         <v>70</v>
       </c>
-      <c r="Q13" t="s">
-        <v>71</v>
-      </c>
       <c r="R13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S13" t="s">
         <v>37</v>
@@ -7279,7 +6997,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -7316,13 +7034,13 @@
         <v>1</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" t="s">
         <v>70</v>
       </c>
-      <c r="Q14" t="s">
-        <v>71</v>
-      </c>
       <c r="R14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S14" t="s">
         <v>37</v>
@@ -7336,7 +7054,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -7373,13 +7091,13 @@
         <v>1</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" t="s">
         <v>70</v>
       </c>
-      <c r="Q15" t="s">
-        <v>71</v>
-      </c>
       <c r="R15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S15" t="s">
         <v>37</v>
